--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_40.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3026075.518982516</v>
+        <v>3183406.053187296</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13236035.67526076</v>
+        <v>11843801.51954495</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1763776.908577127</v>
+        <v>612367.9462114754</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4803704.536072062</v>
+        <v>5066667.908920654</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>362.6751487885534</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>86.72035593489878</v>
       </c>
       <c r="F2" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -722,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +819,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
@@ -832,7 +834,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -874,16 +876,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>13.98177879392758</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.40530867530338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>30.59709888020254</v>
       </c>
       <c r="C5" t="n">
-        <v>42.95528584745297</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -944,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1054,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>38.34275762721101</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
@@ -1105,19 +1107,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>244.3275881150121</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
         <v>421.717170453621</v>
@@ -1145,7 +1147,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1187,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>81.48697791125848</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>50.77901812021</v>
       </c>
     </row>
     <row r="9">
@@ -1294,19 +1296,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>133.2156449870129</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>4.378995526347924</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -1348,13 +1350,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>89.76851039906948</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1528,25 +1530,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>119.3894484174052</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1585,7 +1587,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1616,13 +1618,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>28.65961670115153</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T14" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
@@ -1765,7 +1767,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
@@ -1774,10 +1776,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>12.82988994717983</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1816,13 +1818,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>163.7161733815486</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -2005,22 +2007,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>49.87597792716577</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>8.311138229709144</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -2068,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T20" t="n">
         <v>218.7163152458132</v>
@@ -2239,10 +2241,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,10 +2253,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -2287,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>73.98487681738607</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2305,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>198.4242454073366</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>113.1301917612144</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2491,7 +2493,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>98.77088257712678</v>
@@ -2521,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>73.98487681738607</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2719,19 +2721,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>73.00610635062</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2779,7 +2781,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>70.60537108849643</v>
       </c>
     </row>
     <row r="29">
@@ -2950,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2965,10 +2967,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3010,13 +3012,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>165.8729356708555</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>179.647330961579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3253,7 +3255,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>152.0898487279629</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486159</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
@@ -3272,19 +3274,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G35" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864459</v>
       </c>
       <c r="H35" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I35" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396357</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855911</v>
       </c>
       <c r="T35" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U35" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -3427,16 +3429,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>96.44420510686338</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>123.9086344760398</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
@@ -3509,19 +3511,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G38" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864459</v>
       </c>
       <c r="H38" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I38" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396357</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855911</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458142</v>
       </c>
       <c r="U38" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W38" t="n">
         <v>392.4274362026566</v>
@@ -3664,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>218.0080577057878</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864459</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396357</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855911</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W41" t="n">
-        <v>173.8801556844627</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>102.1509188080621</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3907,16 +3909,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3964,7 +3966,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>63.91221236482846</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>79.81906414000628</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864459</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.54790254396357</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855911</v>
       </c>
       <c r="T44" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026577</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4150,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1133995514656</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>908.3670997859888</v>
+        <v>1401.914645400924</v>
       </c>
       <c r="C2" t="n">
-        <v>481.4663697992889</v>
+        <v>975.0139154142246</v>
       </c>
       <c r="D2" t="n">
-        <v>115.1278356694369</v>
+        <v>551.7212945992248</v>
       </c>
       <c r="E2" t="n">
-        <v>93.19129985769854</v>
+        <v>464.1249754730645</v>
       </c>
       <c r="F2" t="n">
-        <v>72.10752208750284</v>
+        <v>443.0411977028688</v>
       </c>
       <c r="G2" t="n">
-        <v>71.80886371735554</v>
+        <v>38.70213529231737</v>
       </c>
       <c r="H2" t="n">
-        <v>71.80886371735554</v>
+        <v>38.70213529231737</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231737</v>
       </c>
       <c r="J2" t="n">
-        <v>357.6855680512415</v>
+        <v>38.70213529231737</v>
       </c>
       <c r="K2" t="n">
-        <v>814.4714747539724</v>
+        <v>38.70213529231737</v>
       </c>
       <c r="L2" t="n">
-        <v>1271.257381456703</v>
+        <v>42.20451238440319</v>
       </c>
       <c r="M2" t="n">
-        <v>1271.257381456703</v>
+        <v>42.20451238440319</v>
       </c>
       <c r="N2" t="n">
-        <v>1271.257381456703</v>
+        <v>521.1434366268306</v>
       </c>
       <c r="O2" t="n">
-        <v>1728.043288159434</v>
+        <v>1000.082360869258</v>
       </c>
       <c r="P2" t="n">
-        <v>1728.043288159434</v>
+        <v>1479.021285111686</v>
       </c>
       <c r="Q2" t="n">
-        <v>1728.043288159434</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="R2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="S2" t="n">
-        <v>1741.232328914477</v>
+        <v>1830.739470489009</v>
       </c>
       <c r="T2" t="n">
-        <v>1741.232328914477</v>
+        <v>1830.739470489009</v>
       </c>
       <c r="U2" t="n">
-        <v>1741.232328914477</v>
+        <v>1830.739470489009</v>
       </c>
       <c r="V2" t="n">
-        <v>1741.232328914477</v>
+        <v>1830.739470489009</v>
       </c>
       <c r="W2" t="n">
-        <v>1741.232328914477</v>
+        <v>1830.739470489009</v>
       </c>
       <c r="X2" t="n">
-        <v>1329.512330082224</v>
+        <v>1823.05987569716</v>
       </c>
       <c r="Y2" t="n">
-        <v>1328.215464077519</v>
+        <v>1417.72260565205</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.0354834922822</v>
+        <v>693.5426250668139</v>
       </c>
       <c r="C3" t="n">
-        <v>486.529580009787</v>
+        <v>576.0367215843187</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250719</v>
+        <v>472.1967630996037</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980091</v>
+        <v>367.4948293725409</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809132</v>
+        <v>273.8489990554451</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851708</v>
+        <v>179.7952272730491</v>
       </c>
       <c r="H3" t="n">
-        <v>36.9119924608267</v>
+        <v>126.4191340353587</v>
       </c>
       <c r="I3" t="n">
-        <v>44.35863542273854</v>
+        <v>126.4191340353587</v>
       </c>
       <c r="J3" t="n">
-        <v>316.0561247023296</v>
+        <v>126.4191340353587</v>
       </c>
       <c r="K3" t="n">
-        <v>772.8420314050604</v>
+        <v>126.4191340353587</v>
       </c>
       <c r="L3" t="n">
-        <v>1229.627938107791</v>
+        <v>126.4191340353587</v>
       </c>
       <c r="M3" t="n">
-        <v>1229.627938107791</v>
+        <v>126.4191340353587</v>
       </c>
       <c r="N3" t="n">
-        <v>1686.413844810522</v>
+        <v>513.0834392682343</v>
       </c>
       <c r="O3" t="n">
-        <v>1763.580312956634</v>
+        <v>992.0223635106618</v>
       </c>
       <c r="P3" t="n">
-        <v>1763.580312956634</v>
+        <v>1470.961287753089</v>
       </c>
       <c r="Q3" t="n">
-        <v>1763.580312956634</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="R3" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="S3" t="n">
-        <v>1764.275375602591</v>
+        <v>1853.782517177123</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.39543990027</v>
+        <v>1711.902581474801</v>
       </c>
       <c r="U3" t="n">
-        <v>1437.627243819906</v>
+        <v>1527.134385394438</v>
       </c>
       <c r="V3" t="n">
-        <v>1232.654104959172</v>
+        <v>1322.161246533704</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.13272779239</v>
+        <v>1125.639869366921</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590526</v>
+        <v>962.1625231335843</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123449</v>
+        <v>822.4696344868767</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>804.324283372134</v>
+        <v>1121.883257816554</v>
       </c>
       <c r="C4" t="n">
-        <v>804.324283372134</v>
+        <v>949.9106946954702</v>
       </c>
       <c r="D4" t="n">
-        <v>641.0075104989047</v>
+        <v>786.5939218222409</v>
       </c>
       <c r="E4" t="n">
-        <v>474.7993046517582</v>
+        <v>620.3857159750944</v>
       </c>
       <c r="F4" t="n">
-        <v>302.9375304263186</v>
+        <v>448.5239417496549</v>
       </c>
       <c r="G4" t="n">
-        <v>136.6805607205508</v>
+        <v>282.266972043887</v>
       </c>
       <c r="H4" t="n">
-        <v>136.6805607205508</v>
+        <v>138.4707035520414</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231737</v>
       </c>
       <c r="J4" t="n">
-        <v>94.40332068498475</v>
+        <v>38.71266663273485</v>
       </c>
       <c r="K4" t="n">
-        <v>320.9309218908219</v>
+        <v>38.71266663273485</v>
       </c>
       <c r="L4" t="n">
-        <v>430.8949765933859</v>
+        <v>393.4019879271556</v>
       </c>
       <c r="M4" t="n">
-        <v>822.0807715636367</v>
+        <v>784.5877828974064</v>
       </c>
       <c r="N4" t="n">
-        <v>1199.572282439673</v>
+        <v>1162.079293773442</v>
       </c>
       <c r="O4" t="n">
-        <v>1555.000411119436</v>
+        <v>1517.507422453205</v>
       </c>
       <c r="P4" t="n">
-        <v>1845.599623041337</v>
+        <v>1808.106634375107</v>
       </c>
       <c r="Q4" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615869</v>
       </c>
       <c r="R4" t="n">
-        <v>1798.56100972851</v>
+        <v>1888.068151303042</v>
       </c>
       <c r="S4" t="n">
-        <v>1798.56100972851</v>
+        <v>1888.068151303042</v>
       </c>
       <c r="T4" t="n">
-        <v>1798.56100972851</v>
+        <v>1888.068151303042</v>
       </c>
       <c r="U4" t="n">
-        <v>1518.376561228814</v>
+        <v>1607.883702803346</v>
       </c>
       <c r="V4" t="n">
-        <v>1518.376561228814</v>
+        <v>1326.172235411375</v>
       </c>
       <c r="W4" t="n">
-        <v>1243.524157401327</v>
+        <v>1312.04922652862</v>
       </c>
       <c r="X4" t="n">
-        <v>1000.960260847132</v>
+        <v>1312.04922652862</v>
       </c>
       <c r="Y4" t="n">
-        <v>994.4902520841997</v>
+        <v>1312.04922652862</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>879.6780126340918</v>
+        <v>2185.028631180769</v>
       </c>
       <c r="C5" t="n">
-        <v>836.288835010402</v>
+        <v>1758.12790119407</v>
       </c>
       <c r="D5" t="n">
-        <v>817.0366182358063</v>
+        <v>1334.83528037907</v>
       </c>
       <c r="E5" t="n">
-        <v>795.1000824240679</v>
+        <v>908.8583405269275</v>
       </c>
       <c r="F5" t="n">
-        <v>774.0163046538721</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G5" t="n">
-        <v>369.6772422433207</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>71.80886371735554</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>36.91199246082674</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>493.6978991635576</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L5" t="n">
-        <v>950.4838058662885</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="M5" t="n">
-        <v>1407.269712569019</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N5" t="n">
-        <v>1407.269712569019</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="O5" t="n">
-        <v>1845.599623041337</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P5" t="n">
-        <v>1845.599623041337</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
-        <v>1845.599623041337</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>1741.232328914477</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>1520.30675795911</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>1261.951848555523</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V5" t="n">
-        <v>904.4624336817722</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W5" t="n">
-        <v>904.4624336817722</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X5" t="n">
-        <v>896.7828388899235</v>
+        <v>2217.231657670528</v>
       </c>
       <c r="Y5" t="n">
-        <v>895.4859728852178</v>
+        <v>2215.934791665823</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809132</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.35863542273854</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>44.35863542273854</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>44.35863542273854</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L6" t="n">
-        <v>44.35863542273854</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M6" t="n">
-        <v>393.2225928484409</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="N6" t="n">
-        <v>850.0084995511718</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O6" t="n">
-        <v>850.0084995511718</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P6" t="n">
-        <v>1306.794406253903</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
-        <v>1763.580312956634</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>829.2981944739919</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="C7" t="n">
-        <v>657.3256313529079</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D7" t="n">
-        <v>657.3256313529079</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>618.5955731436038</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>446.7337989181643</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>280.4768292123964</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>136.6805607205508</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>36.91199246082674</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>263.4395936666639</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>618.1289149610848</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1009.314709931336</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1386.806220807371</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1555.000411119436</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>1845.599623041337</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>1798.56100972851</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>1628.425962247645</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T7" t="n">
-        <v>1628.425962247645</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U7" t="n">
-        <v>1628.425962247645</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V7" t="n">
-        <v>1346.714494855674</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="W7" t="n">
-        <v>1071.862091028187</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="X7" t="n">
-        <v>829.2981944739919</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="Y7" t="n">
-        <v>829.2981944739919</v>
+        <v>955.7067844524004</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1334.464719255012</v>
+        <v>1746.091355883837</v>
       </c>
       <c r="C8" t="n">
-        <v>1311.604393308716</v>
+        <v>1319.190625897137</v>
       </c>
       <c r="D8" t="n">
-        <v>1292.35217653412</v>
+        <v>895.898005082137</v>
       </c>
       <c r="E8" t="n">
-        <v>866.3752366819779</v>
+        <v>469.9210652299946</v>
       </c>
       <c r="F8" t="n">
-        <v>441.2510548713781</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>493.6978991635576</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L8" t="n">
-        <v>493.6978991635576</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M8" t="n">
-        <v>493.6978991635576</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N8" t="n">
-        <v>950.4838058662885</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O8" t="n">
-        <v>1407.269712569019</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P8" t="n">
-        <v>1407.269712569019</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q8" t="n">
-        <v>1728.043288159434</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>1763.289544343096</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V8" t="n">
-        <v>1763.289544343096</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W8" t="n">
-        <v>1763.289544343096</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X8" t="n">
-        <v>1351.569545510843</v>
+        <v>2217.231657670528</v>
       </c>
       <c r="Y8" t="n">
-        <v>1350.272679506138</v>
+        <v>2165.939720175366</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>382.689621525072</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>277.9876877980092</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809133</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851735</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>36.91199246082694</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35863542273878</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>44.35863542273878</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K9" t="n">
-        <v>44.35863542273878</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="L9" t="n">
-        <v>44.35863542273878</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="M9" t="n">
-        <v>475.2419029331441</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="N9" t="n">
-        <v>932.027809635875</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O9" t="n">
-        <v>1388.813716338606</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>603.7069938361044</v>
+        <v>458.7432593109769</v>
       </c>
       <c r="C10" t="n">
-        <v>603.7069938361044</v>
+        <v>458.7432593109769</v>
       </c>
       <c r="D10" t="n">
-        <v>469.1457362734651</v>
+        <v>458.7432593109769</v>
       </c>
       <c r="E10" t="n">
-        <v>302.9375304263186</v>
+        <v>458.7432593109769</v>
       </c>
       <c r="F10" t="n">
-        <v>302.9375304263186</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>136.6805607205508</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>136.6805607205508</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>675.6202431852428</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>1066.806038155494</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1444.297549031529</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1799.725677711293</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>1845.599623041337</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>1798.56100972851</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>1628.425962247645</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1385.086614473545</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>1104.902165973849</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V10" t="n">
-        <v>1104.902165973849</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W10" t="n">
-        <v>830.0497621463624</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X10" t="n">
-        <v>830.0497621463624</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y10" t="n">
-        <v>603.7069938361044</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2510.883034420487</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C11" t="n">
-        <v>2083.982304433787</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D11" t="n">
-        <v>1660.689683618787</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>1234.712743766645</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>809.5885619560449</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G11" t="n">
-        <v>405.2494995454936</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H11" t="n">
-        <v>107.3811210195284</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I11" t="n">
-        <v>72.48424976299958</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>72.48424976299958</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>72.48424976299958</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>72.48424976299958</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>969.4768405801194</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N11" t="n">
-        <v>1866.469431397239</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O11" t="n">
-        <v>2711.614081548051</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P11" t="n">
-        <v>3419.893360705979</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q11" t="n">
-        <v>3506.656153268076</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R11" t="n">
-        <v>3624.212488149979</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>3533.537225120616</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>3312.611654165249</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>3312.611654165249</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>3312.611654165249</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W11" t="n">
-        <v>2916.220304465596</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>2916.220304465596</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
-        <v>2510.883034420487</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>219.914114783086</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>72.48424976299958</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>72.48424976299958</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>72.48424976299958</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K12" t="n">
-        <v>72.48424976299958</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L12" t="n">
-        <v>267.9815724878916</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M12" t="n">
-        <v>267.9815724878916</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N12" t="n">
-        <v>1164.974163305011</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O12" t="n">
-        <v>1164.974163305011</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P12" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q12" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>625.3133960174614</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C13" t="n">
-        <v>504.7179935756379</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D13" t="n">
-        <v>504.7179935756379</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E13" t="n">
-        <v>338.5097877284915</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F13" t="n">
-        <v>338.5097877284915</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G13" t="n">
-        <v>172.2528180227236</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H13" t="n">
-        <v>172.2528180227236</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I13" t="n">
-        <v>72.48424976299958</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>129.9755779871576</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>356.5031791929948</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>711.1925004874156</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>2082.762229695263</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T13" t="n">
-        <v>1839.422881921163</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U13" t="n">
-        <v>1559.238433421467</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V13" t="n">
-        <v>1559.238433421467</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W13" t="n">
-        <v>1284.38602959398</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X13" t="n">
-        <v>1041.822133039785</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y13" t="n">
-        <v>815.4793647295271</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1412.500519452311</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>985.5997894656114</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>562.3071686506116</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>136.3302287984692</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>136.3302287984692</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>107.3811210195283</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>72.48424976299947</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>435.087708579895</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>435.087708579895</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1332.080299397013</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>1332.080299397013</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N14" t="n">
-        <v>2229.072890214132</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O14" t="n">
-        <v>3074.217540364944</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P14" t="n">
-        <v>3624.212488149974</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q14" t="n">
-        <v>3624.212488149974</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R14" t="n">
-        <v>3624.212488149974</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>3624.212488149974</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T14" t="n">
-        <v>3403.286917194607</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U14" t="n">
-        <v>3403.286917194607</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>3045.797502320856</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W14" t="n">
-        <v>2649.406152621204</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
-        <v>2237.686153788951</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y14" t="n">
-        <v>1832.348883743841</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2382.648348600919</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>2265.142445118423</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>2161.302486633709</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>2056.600552906646</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>1962.95472258955</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>1868.900950807154</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>1815.524857569464</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>1815.524857569464</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>2087.222346849055</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>2677.707273417394</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L15" t="n">
-        <v>2677.707273417394</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M15" t="n">
-        <v>2677.707273417394</v>
+        <v>939.4897558901635</v>
       </c>
       <c r="N15" t="n">
-        <v>3574.699864234513</v>
+        <v>939.4897558901635</v>
       </c>
       <c r="O15" t="n">
-        <v>3574.699864234513</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P15" t="n">
-        <v>3574.699864234513</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q15" t="n">
-        <v>3624.212488149974</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R15" t="n">
-        <v>3624.212488149974</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>3542.888240711228</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>3401.008305008906</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>3216.240108928543</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>3011.266970067809</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>2814.745592901026</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>2651.268246667689</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>2511.575358020982</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>586.9412763995904</v>
+        <v>769.9464360574118</v>
       </c>
       <c r="C16" t="n">
-        <v>414.9687132785064</v>
+        <v>769.9464360574118</v>
       </c>
       <c r="D16" t="n">
-        <v>251.6519404052771</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="E16" t="n">
-        <v>85.44373455813061</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F16" t="n">
-        <v>72.48424976299947</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G16" t="n">
-        <v>72.48424976299947</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H16" t="n">
-        <v>72.48424976299947</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
-        <v>72.48424976299947</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2082.762229695263</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T16" t="n">
-        <v>2082.762229695263</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U16" t="n">
-        <v>1802.577781195567</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="V16" t="n">
-        <v>1520.866313803596</v>
+        <v>1703.871473461417</v>
       </c>
       <c r="W16" t="n">
-        <v>1246.013909976109</v>
+        <v>1429.01906963393</v>
       </c>
       <c r="X16" t="n">
-        <v>1003.450013421914</v>
+        <v>1186.455173079735</v>
       </c>
       <c r="Y16" t="n">
-        <v>777.107245111656</v>
+        <v>960.1124047694775</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
         <v>1690.508147261616</v>
@@ -5501,46 +5503,46 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988742</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.906172222724</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L17" t="n">
-        <v>1180.414480198223</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M17" t="n">
-        <v>2011.8188681099</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N17" t="n">
-        <v>2988.069926596601</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O17" t="n">
-        <v>3833.214576747413</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.493855905341</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
         <v>4789.8428052092</v>
@@ -5601,13 +5603,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P18" t="n">
         <v>1910.990343986338</v>
@@ -5647,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1041.68756743822</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>869.7150043171358</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>706.3982314439065</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>540.1900255967601</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>368.3282513713204</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5695,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T19" t="n">
-        <v>2039.376393044857</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U19" t="n">
-        <v>2030.981303923938</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V19" t="n">
-        <v>1749.269836531967</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>1474.41743270448</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>1231.853536150285</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>1231.853536150285</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5738,10 +5740,10 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883226</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
         <v>137.1995846623573</v>
@@ -5750,31 +5752,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>456.2068044646694</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K20" t="n">
-        <v>1171.715112440168</v>
+        <v>651.5495334576516</v>
       </c>
       <c r="L20" t="n">
-        <v>2101.340160059445</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M20" t="n">
-        <v>3105.626261478503</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N20" t="n">
-        <v>3105.626261478503</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O20" t="n">
-        <v>3950.770911629315</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P20" t="n">
-        <v>4659.050190787243</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
         <v>5010.768376164567</v>
@@ -5792,7 +5794,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
         <v>2960.549862354846</v>
@@ -5832,25 +5834,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L21" t="n">
-        <v>939.1015214887346</v>
+        <v>730.647150085061</v>
       </c>
       <c r="M21" t="n">
-        <v>939.1015214887346</v>
+        <v>730.647150085061</v>
       </c>
       <c r="N21" t="n">
-        <v>939.1015214887346</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O21" t="n">
-        <v>1364.825557038856</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P21" t="n">
-        <v>1364.825557038856</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>681.046097256067</v>
+        <v>712.1625887178441</v>
       </c>
       <c r="C22" t="n">
-        <v>681.046097256067</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="D22" t="n">
-        <v>517.7293243828377</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="E22" t="n">
-        <v>517.7293243828377</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F22" t="n">
-        <v>345.8675501573982</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H22" t="n">
         <v>202.0712816655526</v>
@@ -5908,10 +5910,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5935,25 +5937,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T22" t="n">
-        <v>1869.241345563992</v>
+        <v>2207.983542013516</v>
       </c>
       <c r="U22" t="n">
-        <v>1589.056897064296</v>
+        <v>1927.799093513821</v>
       </c>
       <c r="V22" t="n">
-        <v>1589.056897064296</v>
+        <v>1646.08762612185</v>
       </c>
       <c r="W22" t="n">
-        <v>1314.204493236809</v>
+        <v>1371.235222294363</v>
       </c>
       <c r="X22" t="n">
-        <v>1071.640596682614</v>
+        <v>1128.671325740168</v>
       </c>
       <c r="Y22" t="n">
-        <v>871.2120659681327</v>
+        <v>902.3285574299098</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>464.9061722227241</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L23" t="n">
-        <v>1007.532766690843</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M23" t="n">
-        <v>2011.818868109901</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N23" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O23" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C24" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D24" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E24" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F24" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G24" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>4225.654392279956</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N24" t="n">
-        <v>4225.654392279956</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S24" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T24" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U24" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V24" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W24" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X24" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y24" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>798.2592150595294</v>
+        <v>712.1625887178441</v>
       </c>
       <c r="C25" t="n">
-        <v>683.9862940886057</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="D25" t="n">
-        <v>683.9862940886057</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="E25" t="n">
-        <v>683.9862940886057</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F25" t="n">
-        <v>512.1245198631661</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H25" t="n">
         <v>202.0712816655526</v>
@@ -6169,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>2207.983542013516</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.018283751469</v>
+        <v>1927.799093513821</v>
       </c>
       <c r="V25" t="n">
-        <v>1542.018283751469</v>
+        <v>1646.08762612185</v>
       </c>
       <c r="W25" t="n">
-        <v>1267.165879923982</v>
+        <v>1371.235222294363</v>
       </c>
       <c r="X25" t="n">
-        <v>1024.601983369787</v>
+        <v>1128.671325740168</v>
       </c>
       <c r="Y25" t="n">
-        <v>798.2592150595294</v>
+        <v>902.3285574299098</v>
       </c>
     </row>
     <row r="26">
@@ -6230,22 +6232,22 @@
         <v>817.8110213813276</v>
       </c>
       <c r="L26" t="n">
-        <v>1581.174581076928</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M26" t="n">
-        <v>2585.460682495986</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N26" t="n">
-        <v>3561.711740982687</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O26" t="n">
-        <v>4406.8563911335</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6303,25 +6305,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K27" t="n">
-        <v>964.4851292537592</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L27" t="n">
-        <v>964.4851292537592</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>964.4851292537592</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N27" t="n">
-        <v>964.4851292537592</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O27" t="n">
-        <v>964.4851292537592</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P27" t="n">
-        <v>1680.682846292257</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>655.1318596602905</v>
+        <v>3774.338928650966</v>
       </c>
       <c r="C28" t="n">
-        <v>483.1592965392065</v>
+        <v>3602.366365529882</v>
       </c>
       <c r="D28" t="n">
-        <v>319.8425236659772</v>
+        <v>3439.049592656653</v>
       </c>
       <c r="E28" t="n">
-        <v>319.8425236659772</v>
+        <v>3272.841386809506</v>
       </c>
       <c r="F28" t="n">
-        <v>319.8425236659772</v>
+        <v>3100.979612584067</v>
       </c>
       <c r="G28" t="n">
-        <v>319.8425236659772</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="H28" t="n">
-        <v>176.0462551741316</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I28" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L28" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M28" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N28" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O28" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P28" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q28" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R28" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S28" t="n">
-        <v>2112.580693338092</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="T28" t="n">
-        <v>1869.241345563992</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="U28" t="n">
-        <v>1589.056897064296</v>
+        <v>4834.951221791732</v>
       </c>
       <c r="V28" t="n">
-        <v>1589.056897064296</v>
+        <v>4553.23975439976</v>
       </c>
       <c r="W28" t="n">
-        <v>1314.204493236809</v>
+        <v>4278.387350572273</v>
       </c>
       <c r="X28" t="n">
-        <v>1071.640596682614</v>
+        <v>4035.823454018078</v>
       </c>
       <c r="Y28" t="n">
-        <v>845.2978283723562</v>
+        <v>3964.504897363031</v>
       </c>
     </row>
     <row r="29">
@@ -6464,19 +6466,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>651.5495334576516</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P29" t="n">
         <v>5115.135670291427</v>
@@ -6549,10 +6551,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N30" t="n">
-        <v>1191.617659878699</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O30" t="n">
         <v>1910.990343986338</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>778.6022263052665</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="C31" t="n">
-        <v>606.6296631841825</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="D31" t="n">
-        <v>606.6296631841825</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E31" t="n">
-        <v>440.421457337036</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F31" t="n">
-        <v>268.5596831115964</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H31" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6643,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>2039.376393044857</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>1759.191944545161</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V31" t="n">
-        <v>1477.48047715319</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.628073325703</v>
+        <v>1092.758396489947</v>
       </c>
       <c r="X31" t="n">
-        <v>960.064176771508</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="Y31" t="n">
-        <v>778.6022263052665</v>
+        <v>850.1944999357522</v>
       </c>
     </row>
     <row r="32">
@@ -6716,10 +6718,10 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6783,16 +6785,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.582799500206</v>
       </c>
       <c r="P33" t="n">
         <v>1910.990343986338</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>446.1370507523521</v>
+        <v>3278.556980224822</v>
       </c>
       <c r="C34" t="n">
-        <v>274.1644876312681</v>
+        <v>3106.584417103738</v>
       </c>
       <c r="D34" t="n">
-        <v>274.1644876312681</v>
+        <v>3106.584417103738</v>
       </c>
       <c r="E34" t="n">
-        <v>274.1644876312681</v>
+        <v>3106.584417103738</v>
       </c>
       <c r="F34" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="G34" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="H34" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I34" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L34" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M34" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N34" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O34" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P34" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q34" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R34" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S34" t="n">
-        <v>2112.580693338092</v>
+        <v>5017.717281294595</v>
       </c>
       <c r="T34" t="n">
-        <v>1869.241345563992</v>
+        <v>4774.377933520494</v>
       </c>
       <c r="U34" t="n">
-        <v>1589.056897064296</v>
+        <v>4494.193485020799</v>
       </c>
       <c r="V34" t="n">
-        <v>1307.345429672325</v>
+        <v>4212.482017628828</v>
       </c>
       <c r="W34" t="n">
-        <v>1032.493025844838</v>
+        <v>3937.629613801341</v>
       </c>
       <c r="X34" t="n">
-        <v>789.9291292906429</v>
+        <v>3695.065717247146</v>
       </c>
       <c r="Y34" t="n">
-        <v>636.3030194644177</v>
+        <v>3468.722948936888</v>
       </c>
     </row>
     <row r="35">
@@ -6920,67 +6922,67 @@
         <v>1690.508147261616</v>
       </c>
       <c r="E35" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988736</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883227</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I35" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J35" t="n">
-        <v>464.906172222724</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="K35" t="n">
-        <v>1180.414480198223</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="L35" t="n">
-        <v>2110.0395278175</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M35" t="n">
-        <v>3114.325629236558</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N35" t="n">
-        <v>4090.576687723259</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O35" t="n">
-        <v>4935.721337874071</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P35" t="n">
-        <v>4935.721337874071</v>
+        <v>4565.888850239604</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409523</v>
+        <v>5021.974329743787</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291428</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164569</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.842805209201</v>
       </c>
       <c r="U35" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805613</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931863</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232207</v>
+        <v>3777.60713123221</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399957</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="36">
@@ -7002,40 +7004,40 @@
         <v>343.3784087430108</v>
       </c>
       <c r="F36" t="n">
-        <v>249.7325784259149</v>
+        <v>249.732578425915</v>
       </c>
       <c r="G36" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H36" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="L36" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="M36" t="n">
-        <v>939.1015214887346</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N36" t="n">
-        <v>939.1015214887346</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O36" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P36" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q36" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>941.9189991784957</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C37" t="n">
-        <v>769.9464360574117</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D37" t="n">
-        <v>606.6296631841824</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E37" t="n">
-        <v>440.4214573370359</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="G37" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I37" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302446</v>
       </c>
       <c r="M37" t="n">
         <v>1132.196759100495</v>
       </c>
       <c r="N37" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.68826997653</v>
       </c>
       <c r="O37" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656293</v>
       </c>
       <c r="P37" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578194</v>
       </c>
       <c r="Q37" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818956</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818956</v>
       </c>
       <c r="S37" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T37" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U37" t="n">
-        <v>2157.555503974472</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V37" t="n">
-        <v>1875.844036582501</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W37" t="n">
-        <v>1600.991632755014</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X37" t="n">
-        <v>1358.427736200819</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y37" t="n">
-        <v>1132.084967890561</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C38" t="n">
         <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E38" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.407025598874</v>
+        <v>839.4070255988742</v>
       </c>
       <c r="G38" t="n">
         <v>435.0679631883227</v>
@@ -7178,46 +7180,46 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2129.375202991807</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>3105.626261478508</v>
+        <v>3950.770911629317</v>
       </c>
       <c r="O38" t="n">
-        <v>3950.77091162932</v>
+        <v>3950.770911629317</v>
       </c>
       <c r="P38" t="n">
-        <v>4659.050190787248</v>
+        <v>4659.050190787245</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291431</v>
+        <v>5115.135670291428</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291431</v>
+        <v>5115.135670291428</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164571</v>
+        <v>5010.768376164569</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209204</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X38" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>669.4262044372839</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C39" t="n">
-        <v>551.9203009547887</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D39" t="n">
-        <v>448.0803424700737</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E39" t="n">
-        <v>343.3784087430109</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F39" t="n">
-        <v>249.7325784259151</v>
+        <v>249.732578425915</v>
       </c>
       <c r="G39" t="n">
         <v>155.678806643519</v>
@@ -7251,31 +7253,31 @@
         <v>102.3027134058286</v>
       </c>
       <c r="J39" t="n">
-        <v>374.0002026854197</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="K39" t="n">
-        <v>374.0002026854197</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="L39" t="n">
-        <v>1210.799010768326</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="M39" t="n">
-        <v>1210.799010768326</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N39" t="n">
-        <v>1210.799010768326</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O39" t="n">
-        <v>1210.799010768326</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986339</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986339</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
-        <v>1910.990343986339</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S39" t="n">
         <v>1829.666096547593</v>
@@ -7293,10 +7295,10 @@
         <v>1101.523448737391</v>
       </c>
       <c r="X39" t="n">
-        <v>938.0461025040543</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y39" t="n">
-        <v>798.3532138573466</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4017.903765402539</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>3845.931202281455</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>3682.614429408226</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>3516.40622356108</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>3344.54444933564</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="G40" t="n">
-        <v>3178.287479629872</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="H40" t="n">
-        <v>3034.491211138026</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I40" t="n">
-        <v>2934.722642878302</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J40" t="n">
-        <v>2992.213971102461</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>3218.741572308298</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
-        <v>3573.430893602719</v>
+        <v>741.0109641302446</v>
       </c>
       <c r="M40" t="n">
-        <v>3964.616688572969</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N40" t="n">
-        <v>4342.108199449005</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O40" t="n">
-        <v>4697.536328128768</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P40" t="n">
-        <v>4988.135540050669</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q40" t="n">
-        <v>5115.135670291431</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>5068.097056978604</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>4897.962009497739</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T40" t="n">
-        <v>4654.622661723639</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U40" t="n">
-        <v>4434.412502424863</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>4434.412502424863</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>4434.412502424863</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>4434.412502424863</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>4208.069734114605</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2087.590413605487</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C41" t="n">
-        <v>1660.689683618787</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D41" t="n">
-        <v>1660.689683618787</v>
+        <v>1690.508147261615</v>
       </c>
       <c r="E41" t="n">
-        <v>1234.712743766645</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F41" t="n">
-        <v>809.5885619560449</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G41" t="n">
-        <v>405.2494995454936</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H41" t="n">
-        <v>107.3811210195284</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I41" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J41" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="K41" t="n">
-        <v>72.48424976299957</v>
+        <v>817.8110213813277</v>
       </c>
       <c r="L41" t="n">
-        <v>969.4768405801191</v>
+        <v>1581.174581076929</v>
       </c>
       <c r="M41" t="n">
-        <v>1866.469431397239</v>
+        <v>2585.460682495987</v>
       </c>
       <c r="N41" t="n">
-        <v>2763.462022214358</v>
+        <v>3561.711740982688</v>
       </c>
       <c r="O41" t="n">
-        <v>2915.93320899205</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P41" t="n">
-        <v>3624.212488149978</v>
+        <v>5115.135670291428</v>
       </c>
       <c r="Q41" t="n">
-        <v>3624.212488149978</v>
+        <v>5115.135670291428</v>
       </c>
       <c r="R41" t="n">
-        <v>3624.212488149978</v>
+        <v>5115.135670291428</v>
       </c>
       <c r="S41" t="n">
-        <v>3519.845194023118</v>
+        <v>5010.768376164569</v>
       </c>
       <c r="T41" t="n">
-        <v>3298.919623067752</v>
+        <v>4789.842805209201</v>
       </c>
       <c r="U41" t="n">
-        <v>3040.564713664164</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>2683.075298790413</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>2507.438777897017</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>2507.438777897017</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
-        <v>2507.438777897017</v>
+        <v>2960.549862354845</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>219.914114783086</v>
+        <v>249.732578425915</v>
       </c>
       <c r="G42" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I42" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J42" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="K42" t="n">
-        <v>662.9691763313391</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="L42" t="n">
-        <v>1335.007093396027</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="M42" t="n">
-        <v>1335.007093396027</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="N42" t="n">
-        <v>1335.007093396027</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O42" t="n">
-        <v>1335.007093396027</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P42" t="n">
-        <v>1335.007093396027</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q42" t="n">
-        <v>1799.152570258806</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>648.5142620674835</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C43" t="n">
-        <v>648.5142620674835</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="D43" t="n">
-        <v>648.5142620674835</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="E43" t="n">
-        <v>482.3060562203371</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F43" t="n">
-        <v>482.3060562203371</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="G43" t="n">
-        <v>316.0490865145692</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="H43" t="n">
-        <v>172.2528180227236</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I43" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J43" t="n">
-        <v>129.9755779871576</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>356.5031791929948</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
-        <v>711.1925004874156</v>
+        <v>741.0109641302446</v>
       </c>
       <c r="M43" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2205.858663863301</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2035.723616382436</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T43" t="n">
-        <v>1792.384268608336</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U43" t="n">
-        <v>1512.19982010864</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V43" t="n">
-        <v>1230.488352716669</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W43" t="n">
-        <v>955.6359488891819</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X43" t="n">
-        <v>713.072052334987</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y43" t="n">
-        <v>648.5142620674835</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2133.318859662096</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>1706.418129675396</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>1625.792812362258</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>1199.815872510116</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>774.6916906995161</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G44" t="n">
-        <v>370.3526282889648</v>
+        <v>435.0679631883227</v>
       </c>
       <c r="H44" t="n">
-        <v>72.48424976299957</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I44" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J44" t="n">
-        <v>72.48424976299957</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>528.9971768607437</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>528.9971768607437</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>1425.989767677863</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N44" t="n">
-        <v>2322.982358494983</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O44" t="n">
-        <v>3168.127008645795</v>
+        <v>4659.050190787245</v>
       </c>
       <c r="P44" t="n">
-        <v>3168.127008645795</v>
+        <v>4659.050190787245</v>
       </c>
       <c r="Q44" t="n">
-        <v>3624.212488149978</v>
+        <v>5115.135670291428</v>
       </c>
       <c r="R44" t="n">
-        <v>3624.212488149978</v>
+        <v>5115.135670291428</v>
       </c>
       <c r="S44" t="n">
-        <v>3519.845194023118</v>
+        <v>5010.768376164569</v>
       </c>
       <c r="T44" t="n">
-        <v>3298.919623067752</v>
+        <v>4789.842805209201</v>
       </c>
       <c r="U44" t="n">
-        <v>3298.919623067752</v>
+        <v>4531.487895805613</v>
       </c>
       <c r="V44" t="n">
-        <v>2941.430208194001</v>
+        <v>4173.998480931863</v>
       </c>
       <c r="W44" t="n">
-        <v>2545.038858494348</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X44" t="n">
-        <v>2133.318859662096</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
-        <v>2133.318859662096</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>219.914114783086</v>
+        <v>249.732578425915</v>
       </c>
       <c r="G45" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I45" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J45" t="n">
-        <v>72.48424976299957</v>
+        <v>374.0002026854197</v>
       </c>
       <c r="K45" t="n">
-        <v>72.48424976299957</v>
+        <v>374.0002026854197</v>
       </c>
       <c r="L45" t="n">
-        <v>72.48424976299957</v>
+        <v>374.0002026854197</v>
       </c>
       <c r="M45" t="n">
-        <v>527.5451254692584</v>
+        <v>1429.986740661465</v>
       </c>
       <c r="N45" t="n">
-        <v>527.5451254692584</v>
+        <v>1429.986740661465</v>
       </c>
       <c r="O45" t="n">
-        <v>1417.02640348073</v>
+        <v>1429.986740661465</v>
       </c>
       <c r="P45" t="n">
-        <v>1417.02640348073</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q45" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.8834238610929</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C46" t="n">
-        <v>487.9108607400088</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D46" t="n">
-        <v>487.9108607400088</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E46" t="n">
-        <v>487.9108607400088</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F46" t="n">
-        <v>316.0490865145692</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="G46" t="n">
-        <v>316.0490865145692</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="H46" t="n">
-        <v>172.2528180227236</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I46" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J46" t="n">
-        <v>129.9755779871576</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>356.5031791929948</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
-        <v>711.1925004874156</v>
+        <v>741.0109641302446</v>
       </c>
       <c r="M46" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2205.858663863301</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2035.723616382436</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T46" t="n">
-        <v>1873.992909764794</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U46" t="n">
-        <v>1593.808461265098</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V46" t="n">
-        <v>1593.808461265098</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W46" t="n">
-        <v>1318.956057437611</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X46" t="n">
-        <v>1076.392160883416</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y46" t="n">
-        <v>850.0493925731585</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>353.4336722031772</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>499.7119481929572</v>
+        <v>41.84979707109345</v>
       </c>
       <c r="M2" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>521.0563139884132</v>
       </c>
       <c r="O2" t="n">
-        <v>498.7908651163583</v>
+        <v>521.1676505099913</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>521.3520529641985</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>482.7429339738759</v>
+        <v>411.9130334992747</v>
       </c>
       <c r="O3" t="n">
-        <v>101.1178171425367</v>
+        <v>506.9485808761893</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>505.5475323587958</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,13 +8136,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>20.64739370149528</v>
       </c>
       <c r="K4" t="n">
-        <v>249.7804132464869</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L4" t="n">
-        <v>132.9935626255638</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
         <v>417.7126065281028</v>
@@ -8155,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>499.7119481929572</v>
+        <v>182.5915214642101</v>
       </c>
       <c r="M5" t="n">
-        <v>498.831168659766</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>480.1484446815972</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8294,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
         <v>22.39923383333334</v>
@@ -8301,22 +8303,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>375.4846162958657</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>482.7429339738759</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>455.7096961566975</v>
       </c>
       <c r="P6" t="n">
-        <v>483.1707469651629</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8371,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
@@ -8386,13 +8388,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O7" t="n">
-        <v>192.3923090257622</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039392</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,28 +8455,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>497.1645065551435</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>571.1852249800523</v>
       </c>
       <c r="N8" t="n">
-        <v>498.6795285947802</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>360.1383873221887</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8535,19 +8537,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>173.266988396334</v>
       </c>
       <c r="M9" t="n">
-        <v>458.3324042602122</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
-        <v>482.7429339738759</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>484.5717954825564</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
@@ -8626,10 +8628,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P10" t="n">
-        <v>68.71811917318276</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q10" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>943.4843849369265</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>943.3327448719408</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>753.0089771212694</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q11" t="n">
-        <v>123.7638590107569</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8772,13 +8774,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>219.9871298706862</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>927.3961502510364</v>
+        <v>279.6168721116282</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
@@ -8927,22 +8929,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>944.3651644701163</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>943.3327448719394</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>593.1258141183421</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q14" t="n">
         <v>36.12467460459804</v>
@@ -9003,31 +9005,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>23.09678051232798</v>
+        <v>868.740257769232</v>
       </c>
       <c r="N15" t="n">
-        <v>927.396150251035</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>72.75978971873668</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,16 +9163,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>877.2336749314286</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9179,13 +9181,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9249,16 +9251,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>26.37892716579976</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
@@ -9398,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>386.8988393430016</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
-        <v>758.5002654165255</v>
+        <v>590.5593685239236</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
@@ -9410,7 +9412,7 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9419,7 +9421,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
         <v>35.03264989479647</v>
@@ -9480,10 +9482,10 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
-        <v>867.7664080100944</v>
+        <v>60.75701611917185</v>
       </c>
       <c r="M21" t="n">
         <v>23.09678051232798</v>
@@ -9492,16 +9494,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>453.1961680556779</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
-        <v>586.4197136125407</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
         <v>1051.861668373228</v>
@@ -9653,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q23" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9723,13 +9725,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>951.5880457335774</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N24" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O24" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
@@ -9878,7 +9880,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>809.3863451554519</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
@@ -9890,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>466.324307620685</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,28 +9953,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N27" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>255.3808743436059</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10112,7 +10114,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
-        <v>758.5002654165255</v>
+        <v>590.5593685239236</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
@@ -10127,7 +10129,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
@@ -10197,13 +10199,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N30" t="n">
         <v>1121.661155963915</v>
       </c>
       <c r="O30" t="n">
-        <v>749.810964578424</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
         <v>21.77084120482866</v>
@@ -10364,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>466.324307620685</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,19 +10433,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>105.0107851302144</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
@@ -10583,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
@@ -10601,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>98.60750039798424</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>129.1350140843328</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,25 +10670,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N36" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O36" t="n">
-        <v>453.1961680556779</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R36" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,16 +10828,16 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>995.9774475394154</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>882.1738474735971</v>
       </c>
       <c r="O38" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P38" t="n">
         <v>753.0089771212694</v>
@@ -10899,16 +10901,16 @@
         <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>574.9403427290241</v>
       </c>
       <c r="N39" t="n">
         <v>21.34302821354166</v>
@@ -10917,13 +10919,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>729.0348141523162</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,19 +11062,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>944.3651644701174</v>
+        <v>809.3863451554527</v>
       </c>
       <c r="M41" t="n">
-        <v>943.4843849369263</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>943.3327448719406</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>191.4022591314709</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
         <v>753.0089771212694</v>
@@ -11139,28 +11141,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>701.3412655674496</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>21.34302821354166</v>
+        <v>656.0343783945843</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,22 +11296,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>496.8887695804095</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>943.4843849369263</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>943.3327448719406</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>891.0724241548241</v>
+        <v>611.6066190166164</v>
       </c>
       <c r="P44" t="n">
         <v>37.5753618102313</v>
@@ -11373,7 +11375,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
         <v>22.39923383333334</v>
@@ -11382,16 +11384,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>482.7542307206703</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>38.79925177260048</v>
       </c>
       <c r="Q45" t="n">
         <v>491.5808533018869</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23306,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>13.55511078652151</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>50.86338907246792</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23504,13 +23506,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>371.6360550852943</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23653,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,10 +23664,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>157.3132665360054</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
@@ -23704,13 +23706,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>115.1781793365028</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23893,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>118.5577190788907</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>269.0714657849896</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
@@ -24139,10 +24141,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24175,16 +24177,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>166.9210774789729</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>25.65509521981878</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>57.12264572865871</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
@@ -24379,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>166.9210774789729</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24607,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>25.76477622650678</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,16 +24651,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>153.4739695386589</v>
       </c>
     </row>
     <row r="29">
@@ -24838,7 +24840,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>106.2309441183566</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>44.43200966557637</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -25123,7 +25125,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>71.98949189919247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,16 +25317,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
@@ -25360,13 +25362,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919311</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>153.473969538659</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>59.37454630891094</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25631,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25688,13 +25690,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>218.5472805181939</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>68.10191868181103</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
@@ -25795,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>160.1671282623269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25862,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>339.2406304668434</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25883,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25919,7 +25921,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25931,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26038,10 +26040,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T46" t="n">
-        <v>80.79255474489344</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>444482.1705301476</v>
+        <v>444711.652375344</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>444482.1705301476</v>
+        <v>445454.6642450935</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>444482.1705301476</v>
+        <v>445454.6642450935</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>346546.2755031284</v>
+        <v>435838.9157510694</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>346546.2755031281</v>
+        <v>435838.9157510696</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>435838.9157510696</v>
+        <v>435838.9157510694</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>435838.9157510696</v>
+        <v>435838.9157510694</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>346546.2755031284</v>
+        <v>435838.9157510694</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>346546.2755031284</v>
+        <v>435838.9157510694</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>582442.6680111632</v>
+        <v>582442.6680111631</v>
       </c>
       <c r="C2" t="n">
-        <v>582442.6680111634</v>
+        <v>582442.668011163</v>
       </c>
       <c r="D2" t="n">
-        <v>582442.6680111634</v>
+        <v>582442.6680111631</v>
       </c>
       <c r="E2" t="n">
-        <v>446889.5069008821</v>
+        <v>562030.4031374471</v>
       </c>
       <c r="F2" t="n">
-        <v>446889.5069008818</v>
+        <v>562030.403137447</v>
       </c>
       <c r="G2" t="n">
+        <v>562030.4031374468</v>
+      </c>
+      <c r="H2" t="n">
+        <v>562030.403137447</v>
+      </c>
+      <c r="I2" t="n">
+        <v>562030.4031374474</v>
+      </c>
+      <c r="J2" t="n">
+        <v>562030.4031374474</v>
+      </c>
+      <c r="K2" t="n">
+        <v>562030.4031374475</v>
+      </c>
+      <c r="L2" t="n">
+        <v>562030.4031374474</v>
+      </c>
+      <c r="M2" t="n">
         <v>562030.4031374472</v>
-      </c>
-      <c r="H2" t="n">
-        <v>562030.4031374474</v>
-      </c>
-      <c r="I2" t="n">
-        <v>562030.4031374475</v>
-      </c>
-      <c r="J2" t="n">
-        <v>562030.4031374472</v>
-      </c>
-      <c r="K2" t="n">
-        <v>562030.4031374472</v>
-      </c>
-      <c r="L2" t="n">
-        <v>562030.4031374475</v>
-      </c>
-      <c r="M2" t="n">
-        <v>562030.403137447</v>
       </c>
       <c r="N2" t="n">
         <v>562030.4031374472</v>
       </c>
       <c r="O2" t="n">
-        <v>446889.5069008821</v>
+        <v>562030.4031374472</v>
       </c>
       <c r="P2" t="n">
-        <v>446889.5069008821</v>
+        <v>562030.4031374474</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154625.7206181205</v>
+        <v>162124.6960695909</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.8336736125</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>132763.6680096021</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>102159.92009431</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>120722.5169427569</v>
+        <v>126577.2685802886</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035702002</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>110809.3601091334</v>
+        <v>180063.8714551677</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>168860.431333321</v>
+        <v>163968.715444695</v>
       </c>
       <c r="C4" t="n">
-        <v>168860.431333321</v>
+        <v>148130.4125690141</v>
       </c>
       <c r="D4" t="n">
-        <v>168860.431333321</v>
+        <v>148130.4125690141</v>
       </c>
       <c r="E4" t="n">
-        <v>12002.98750317896</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="F4" t="n">
-        <v>12002.98750317895</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="G4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="H4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792739</v>
       </c>
       <c r="I4" t="n">
         <v>15116.17365792743</v>
       </c>
       <c r="J4" t="n">
+        <v>15116.17365792743</v>
+      </c>
+      <c r="K4" t="n">
         <v>15116.17365792744</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>15116.17365792743</v>
       </c>
-      <c r="L4" t="n">
-        <v>15116.17365792744</v>
-      </c>
       <c r="M4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792733</v>
       </c>
       <c r="N4" t="n">
-        <v>15116.17365792744</v>
+        <v>15116.17365792735</v>
       </c>
       <c r="O4" t="n">
-        <v>12002.98750317896</v>
+        <v>15116.17365792739</v>
       </c>
       <c r="P4" t="n">
-        <v>12002.98750317896</v>
+        <v>15116.17365792735</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61680.71427022832</v>
+        <v>63041.2228221612</v>
       </c>
       <c r="C5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>55088.02981987968</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>55088.02981987959</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
         <v>77750.06218842969</v>
@@ -26500,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.0621884297</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842974</v>
+        <v>77750.0621884297</v>
       </c>
       <c r="O5" t="n">
-        <v>55088.02981987967</v>
+        <v>77750.0621884297</v>
       </c>
       <c r="P5" t="n">
-        <v>55088.02981987967</v>
+        <v>77750.0621884297</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>197275.8017894934</v>
+        <v>193308.033674716</v>
       </c>
       <c r="C6" t="n">
-        <v>351901.522407614</v>
+        <v>343459.1707311083</v>
       </c>
       <c r="D6" t="n">
-        <v>351901.522407614</v>
+        <v>366866.0044047209</v>
       </c>
       <c r="E6" t="n">
-        <v>247034.8215682214</v>
+        <v>253424.8107344494</v>
       </c>
       <c r="F6" t="n">
-        <v>379798.4895778237</v>
+        <v>469164.1672910898</v>
       </c>
       <c r="G6" t="n">
-        <v>367004.2471967801</v>
+        <v>469164.1672910897</v>
       </c>
       <c r="H6" t="n">
+        <v>469164.1672910899</v>
+      </c>
+      <c r="I6" t="n">
+        <v>469164.1672910903</v>
+      </c>
+      <c r="J6" t="n">
+        <v>342586.8987108017</v>
+      </c>
+      <c r="K6" t="n">
+        <v>450517.5669340704</v>
+      </c>
+      <c r="L6" t="n">
+        <v>469164.1672910903</v>
+      </c>
+      <c r="M6" t="n">
+        <v>289100.2958359225</v>
+      </c>
+      <c r="N6" t="n">
+        <v>469164.1672910902</v>
+      </c>
+      <c r="O6" t="n">
+        <v>469164.1672910901</v>
+      </c>
+      <c r="P6" t="n">
         <v>469164.1672910904</v>
-      </c>
-      <c r="I6" t="n">
-        <v>469164.1672910904</v>
-      </c>
-      <c r="J6" t="n">
-        <v>348441.6503483332</v>
-      </c>
-      <c r="K6" t="n">
-        <v>469164.1672910901</v>
-      </c>
-      <c r="L6" t="n">
-        <v>469164.1672910904</v>
-      </c>
-      <c r="M6" t="n">
-        <v>358354.8071819565</v>
-      </c>
-      <c r="N6" t="n">
-        <v>469164.16729109</v>
-      </c>
-      <c r="O6" t="n">
-        <v>379798.4895778234</v>
-      </c>
-      <c r="P6" t="n">
-        <v>379798.4895778234</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539671</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>906.0531220374947</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>906.0531220374934</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26820,16 +26822,16 @@
         <v>1278.783917572857</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.783917572858</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>906.0531220374945</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>906.0531220374945</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539671</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.451121961627</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>444.6532162771605</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.287236160932321e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>372.7307955353632</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539671</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.451121961627</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.6532162771601</v>
+        <v>722.5561044572629</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539671</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.451121961627</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.6532162771605</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>372.7307955353632</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>56.38454581829626</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>334.9968145187222</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27442,10 +27444,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27552,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27594,16 +27596,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>258.1221009952845</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>217.674031951852</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>385.0527817684122</v>
       </c>
       <c r="C5" t="n">
-        <v>379.6764368393799</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
@@ -27774,13 +27776,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>126.203366161464</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27825,19 +27827,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>27.77629167419997</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -27850,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="C8" t="n">
-        <v>400</v>
-      </c>
-      <c r="D8" t="n">
-        <v>400</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -27907,7 +27909,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>174.2843823982934</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
@@ -27916,10 +27918,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>350.5048792244486</v>
       </c>
     </row>
     <row r="9">
@@ -28014,19 +28016,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>28.4679601574841</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>165.7641609568373</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28068,13 +28070,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>324.0137127175907</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>461.3999057603342</v>
+        <v>3.537754638470521</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>483.7766911539671</v>
       </c>
       <c r="O2" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539671</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>483.7766911539671</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>461.3999057603342</v>
+        <v>390.570005285733</v>
       </c>
       <c r="O3" t="n">
-        <v>77.9459274203145</v>
+        <v>483.7766911539671</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>483.7766911539671</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>0.01063771759341352</v>
       </c>
       <c r="K4" t="n">
-        <v>228.8157587937749</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>111.0748027298626</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
         <v>395.137166636617</v>
@@ -34875,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>461.3999057603342</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="M5" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
-        <v>442.7574853255731</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,7 +35014,7 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35021,22 +35023,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>352.3878357835378</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="P6" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
@@ -35106,13 +35108,13 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O7" t="n">
-        <v>169.8931215273378</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
         <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>128.2829598391542</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,28 +35175,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>533.7539620806206</v>
       </c>
       <c r="N8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>324.0137127175907</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35255,19 +35257,19 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>150.7519016821044</v>
       </c>
       <c r="M9" t="n">
-        <v>435.2356237478842</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35346,10 +35348,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P10" t="n">
-        <v>46.33731851519627</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>906.0531220374947</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>906.0531220374947</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>715.433615311038</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q11" t="n">
-        <v>87.63918440615886</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35492,13 +35494,13 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>197.4720431564566</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>906.0531220374947</v>
+        <v>258.2738438980865</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35647,22 +35649,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>906.0531220374934</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>906.0531220374934</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>555.5504523081107</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>845.643477256904</v>
       </c>
       <c r="N15" t="n">
-        <v>906.0531220374934</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>50.01275142975819</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>839.8024120319968</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35899,13 +35901,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,16 +35971,16 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>3.207037443577533</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36118,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>357.4788798574151</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>722.7356646217162</v>
+        <v>554.7947677291143</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
@@ -36130,7 +36132,7 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36139,7 +36141,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,10 +36202,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
-        <v>845.2513212958648</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36212,16 +36214,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>430.0242783334557</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
-        <v>548.1076711799178</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
         <v>1014.430405473796</v>
@@ -36373,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q23" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,13 +36445,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>928.4912652212494</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O24" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36598,7 +36600,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>771.074302722829</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
@@ -36610,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>428.7489458104537</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>232.6338360546274</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36832,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>722.7356646217162</v>
+        <v>554.7947677291143</v>
       </c>
       <c r="L29" t="n">
         <v>939.015199615431</v>
@@ -36847,7 +36849,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36917,13 +36919,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N30" t="n">
         <v>1100.318127750374</v>
       </c>
       <c r="O30" t="n">
-        <v>726.6390748562018</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37084,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>428.7489458104537</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,19 +37153,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>83.23994392538575</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37303,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
@@ -37321,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>62.4828257933862</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>94.10236418953635</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37390,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O36" t="n">
-        <v>430.0242783334557</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37473,7 +37475,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N37" t="n">
-        <v>381.3045564404402</v>
+        <v>381.3045564404391</v>
       </c>
       <c r="O37" t="n">
         <v>359.0183117977405</v>
@@ -37546,16 +37548,16 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>958.5461846399836</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>844.894224639151</v>
       </c>
       <c r="O38" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>715.433615311038</v>
@@ -37619,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>551.8435622166961</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37637,13 +37639,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>707.2639729474876</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,19 +37782,19 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>906.0531220374945</v>
+        <v>771.0743027228298</v>
       </c>
       <c r="M41" t="n">
-        <v>906.0531220374945</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>906.0531220374945</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>154.0112997754468</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
         <v>715.433615311038</v>
@@ -37859,28 +37861,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>678.82617885322</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>634.6913501810427</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,22 +38016,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>461.1241687856001</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>906.0531220374945</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>906.0531220374945</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>853.6814647988001</v>
+        <v>574.2156596605922</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38102,16 +38104,16 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>459.6574502083423</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>17.02841056777183</v>
       </c>
       <c r="Q45" t="n">
         <v>468.8338150129084</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3183406.053187296</v>
+        <v>3182709.391982206</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11843801.51954495</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.9462114754</v>
+        <v>612367.9462114762</v>
       </c>
     </row>
     <row r="9">
@@ -664,16 +664,16 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>86.72035593489878</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -718,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>72.57574927863519</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
         <v>401.2838973446586</v>
@@ -819,22 +819,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>56.90100239412819</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
@@ -879,13 +879,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>13.98177879392758</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>30.59709888020254</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>43.72464718200592</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
@@ -1074,7 +1074,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>213.8764542074653</v>
       </c>
       <c r="W7" t="n">
-        <v>244.3275881150121</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1141,13 +1141,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>49.49512077555119</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>50.77901812021</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1299,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>58.31517967031814</v>
       </c>
       <c r="F10" t="n">
-        <v>4.378995526347924</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
@@ -1359,7 +1359,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396256</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1533,22 +1533,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>98.15366458399268</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1593,7 +1593,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>57.34459847044943</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
         <v>218.7163152458132</v>
@@ -1767,19 +1767,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1818,13 +1818,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>168.9164623971668</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>163.7161733815486</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -2016,7 +2016,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>96.44420510686398</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>49.87597792716577</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
         <v>218.7163152458132</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>73.98487681738607</v>
+        <v>172.7557593945127</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -2481,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>73.98487681738607</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
@@ -2538,10 +2538,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>141.8077672217587</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2718,16 +2718,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
@@ -2781,7 +2781,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>70.60537108849643</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3012,13 +3012,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>165.8729356708555</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486159</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
@@ -3274,19 +3274,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H35" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
-        <v>34.54790254396357</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>103.3236211855911</v>
+        <v>103.3236211855901</v>
       </c>
       <c r="T35" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U35" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V35" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -3426,25 +3426,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>32.09631665208452</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>96.44420510686338</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
@@ -3483,7 +3483,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
@@ -3511,19 +3511,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>421.7171704536211</v>
+        <v>421.7171704536202</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H38" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.54790254396357</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.3236211855911</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7163152458142</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
         <v>392.4274362026566</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -3748,19 +3748,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>34.54790254396357</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.3236211855911</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3900,13 +3900,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>102.1509188080621</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3957,7 +3957,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>206.9048608188591</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -3985,19 +3985,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407046</v>
       </c>
       <c r="I44" t="n">
-        <v>34.54790254396357</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.3236211855911</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026577</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>3.222079004209051</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>96.44420510686429</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1401.914645400924</v>
+        <v>528.1740540056946</v>
       </c>
       <c r="C2" t="n">
-        <v>975.0139154142246</v>
+        <v>101.2733240189947</v>
       </c>
       <c r="D2" t="n">
-        <v>551.7212945992248</v>
+        <v>82.02110724439906</v>
       </c>
       <c r="E2" t="n">
-        <v>464.1249754730645</v>
+        <v>60.08457143266067</v>
       </c>
       <c r="F2" t="n">
-        <v>443.0411977028688</v>
+        <v>39.00079366246496</v>
       </c>
       <c r="G2" t="n">
-        <v>38.70213529231737</v>
+        <v>38.70213529231766</v>
       </c>
       <c r="H2" t="n">
-        <v>38.70213529231737</v>
+        <v>38.70213529231766</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231737</v>
+        <v>38.70213529231766</v>
       </c>
       <c r="J2" t="n">
-        <v>38.70213529231737</v>
+        <v>38.70213529231766</v>
       </c>
       <c r="K2" t="n">
-        <v>38.70213529231737</v>
+        <v>517.6410595347487</v>
       </c>
       <c r="L2" t="n">
-        <v>42.20451238440319</v>
+        <v>517.6410595347487</v>
       </c>
       <c r="M2" t="n">
-        <v>42.20451238440319</v>
+        <v>517.6410595347487</v>
       </c>
       <c r="N2" t="n">
-        <v>521.1434366268306</v>
+        <v>996.5799837771797</v>
       </c>
       <c r="O2" t="n">
-        <v>1000.082360869258</v>
+        <v>1475.518908019611</v>
       </c>
       <c r="P2" t="n">
-        <v>1479.021285111686</v>
+        <v>1935.106764615883</v>
       </c>
       <c r="Q2" t="n">
-        <v>1935.106764615869</v>
+        <v>1935.106764615883</v>
       </c>
       <c r="R2" t="n">
-        <v>1935.106764615869</v>
+        <v>1935.106764615883</v>
       </c>
       <c r="S2" t="n">
-        <v>1830.739470489009</v>
+        <v>1830.739470489023</v>
       </c>
       <c r="T2" t="n">
-        <v>1830.739470489009</v>
+        <v>1830.739470489023</v>
       </c>
       <c r="U2" t="n">
-        <v>1830.739470489009</v>
+        <v>1830.739470489023</v>
       </c>
       <c r="V2" t="n">
-        <v>1830.739470489009</v>
+        <v>1757.430632833836</v>
       </c>
       <c r="W2" t="n">
-        <v>1830.739470489009</v>
+        <v>1361.039283134183</v>
       </c>
       <c r="X2" t="n">
-        <v>1823.05987569716</v>
+        <v>949.3192843019303</v>
       </c>
       <c r="Y2" t="n">
-        <v>1417.72260565205</v>
+        <v>543.9820142568207</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>693.5426250668139</v>
+        <v>605.8256263237729</v>
       </c>
       <c r="C3" t="n">
-        <v>576.0367215843187</v>
+        <v>488.3197228412777</v>
       </c>
       <c r="D3" t="n">
-        <v>472.1967630996037</v>
+        <v>384.4797643565627</v>
       </c>
       <c r="E3" t="n">
-        <v>367.4948293725409</v>
+        <v>279.7778306294999</v>
       </c>
       <c r="F3" t="n">
-        <v>273.8489990554451</v>
+        <v>186.132000312404</v>
       </c>
       <c r="G3" t="n">
-        <v>179.7952272730491</v>
+        <v>92.07822853000806</v>
       </c>
       <c r="H3" t="n">
-        <v>126.4191340353587</v>
+        <v>38.70213529231766</v>
       </c>
       <c r="I3" t="n">
-        <v>126.4191340353587</v>
+        <v>38.70213529231766</v>
       </c>
       <c r="J3" t="n">
-        <v>126.4191340353587</v>
+        <v>38.70213529231766</v>
       </c>
       <c r="K3" t="n">
-        <v>126.4191340353587</v>
+        <v>38.70213529231766</v>
       </c>
       <c r="L3" t="n">
-        <v>126.4191340353587</v>
+        <v>517.6410595347487</v>
       </c>
       <c r="M3" t="n">
-        <v>126.4191340353587</v>
+        <v>996.5799837771797</v>
       </c>
       <c r="N3" t="n">
-        <v>513.0834392682343</v>
+        <v>1475.518908019611</v>
       </c>
       <c r="O3" t="n">
-        <v>992.0223635106618</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="P3" t="n">
-        <v>1470.961287753089</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="Q3" t="n">
-        <v>1935.106764615869</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="R3" t="n">
-        <v>1935.106764615869</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1853.782517177123</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1711.902581474801</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1527.134385394438</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1322.161246533704</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1125.639869366921</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>962.1625231335843</v>
+        <v>874.4455243905433</v>
       </c>
       <c r="Y3" t="n">
-        <v>822.4696344868767</v>
+        <v>734.7526357438356</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1121.883257816554</v>
+        <v>195.9464635461106</v>
       </c>
       <c r="C4" t="n">
-        <v>949.9106946954702</v>
+        <v>138.4707035520417</v>
       </c>
       <c r="D4" t="n">
-        <v>786.5939218222409</v>
+        <v>138.4707035520417</v>
       </c>
       <c r="E4" t="n">
-        <v>620.3857159750944</v>
+        <v>138.4707035520417</v>
       </c>
       <c r="F4" t="n">
-        <v>448.5239417496549</v>
+        <v>138.4707035520417</v>
       </c>
       <c r="G4" t="n">
-        <v>282.266972043887</v>
+        <v>138.4707035520417</v>
       </c>
       <c r="H4" t="n">
-        <v>138.4707035520414</v>
+        <v>138.4707035520417</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231737</v>
+        <v>38.70213529231766</v>
       </c>
       <c r="J4" t="n">
-        <v>38.71266663273485</v>
+        <v>38.70213529231766</v>
       </c>
       <c r="K4" t="n">
-        <v>38.71266663273485</v>
+        <v>165.7127968735113</v>
       </c>
       <c r="L4" t="n">
-        <v>393.4019879271556</v>
+        <v>520.402118167932</v>
       </c>
       <c r="M4" t="n">
-        <v>784.5877828974064</v>
+        <v>911.5879131381828</v>
       </c>
       <c r="N4" t="n">
-        <v>1162.079293773442</v>
+        <v>1289.079424014219</v>
       </c>
       <c r="O4" t="n">
-        <v>1517.507422453205</v>
+        <v>1644.507552693982</v>
       </c>
       <c r="P4" t="n">
-        <v>1808.106634375107</v>
+        <v>1935.106764615883</v>
       </c>
       <c r="Q4" t="n">
-        <v>1935.106764615869</v>
+        <v>1935.106764615883</v>
       </c>
       <c r="R4" t="n">
-        <v>1888.068151303042</v>
+        <v>1935.106764615883</v>
       </c>
       <c r="S4" t="n">
-        <v>1888.068151303042</v>
+        <v>1935.106764615883</v>
       </c>
       <c r="T4" t="n">
-        <v>1888.068151303042</v>
+        <v>1691.767416841783</v>
       </c>
       <c r="U4" t="n">
-        <v>1607.883702803346</v>
+        <v>1411.582968342087</v>
       </c>
       <c r="V4" t="n">
-        <v>1326.172235411375</v>
+        <v>1129.871500950116</v>
       </c>
       <c r="W4" t="n">
-        <v>1312.04922652862</v>
+        <v>855.0190971226291</v>
       </c>
       <c r="X4" t="n">
-        <v>1312.04922652862</v>
+        <v>612.4552005684342</v>
       </c>
       <c r="Y4" t="n">
-        <v>1312.04922652862</v>
+        <v>386.1124322581762</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2185.028631180769</v>
+        <v>151.235724060779</v>
       </c>
       <c r="C5" t="n">
-        <v>1758.12790119407</v>
+        <v>107.0694137759246</v>
       </c>
       <c r="D5" t="n">
-        <v>1334.83528037907</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E5" t="n">
-        <v>908.8583405269275</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F5" t="n">
-        <v>483.7341587163277</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>407.101683866143</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L5" t="n">
-        <v>549.9383681074144</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M5" t="n">
-        <v>1100.603903091853</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N5" t="n">
-        <v>1651.269438076291</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O5" t="n">
-        <v>1651.269438076291</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P5" t="n">
-        <v>1651.269438076291</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
@@ -4597,22 +4597,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462377</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.911252462377</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.911252462377</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W5" t="n">
-        <v>2224.911252462377</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="X5" t="n">
-        <v>2217.231657670528</v>
+        <v>976.4213583974188</v>
       </c>
       <c r="Y5" t="n">
-        <v>2215.934791665823</v>
+        <v>571.0840883523091</v>
       </c>
     </row>
     <row r="6">
@@ -4646,22 +4646,22 @@
         <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>323.6423572907505</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K6" t="n">
-        <v>323.6423572907505</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="L6" t="n">
-        <v>323.6423572907505</v>
+        <v>1153.275937980036</v>
       </c>
       <c r="M6" t="n">
-        <v>323.6423572907505</v>
+        <v>1703.941472964474</v>
       </c>
       <c r="N6" t="n">
-        <v>874.3078922751886</v>
+        <v>1703.941472964474</v>
       </c>
       <c r="O6" t="n">
-        <v>1302.520320645319</v>
+        <v>1703.941472964474</v>
       </c>
       <c r="P6" t="n">
         <v>1853.185855629757</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>955.7067844524004</v>
+        <v>1027.91077931376</v>
       </c>
       <c r="C7" t="n">
-        <v>955.7067844524004</v>
+        <v>855.9382161926764</v>
       </c>
       <c r="D7" t="n">
-        <v>792.3900115791711</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="E7" t="n">
-        <v>626.1818057320246</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F7" t="n">
-        <v>454.3200315065851</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4746,31 +4746,31 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.87263914955</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668685</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894585</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U7" t="n">
-        <v>1484.213795394889</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="V7" t="n">
-        <v>1202.502328002918</v>
+        <v>1961.835816717766</v>
       </c>
       <c r="W7" t="n">
-        <v>955.7067844524004</v>
+        <v>1686.983412890279</v>
       </c>
       <c r="X7" t="n">
-        <v>955.7067844524004</v>
+        <v>1444.419516336084</v>
       </c>
       <c r="Y7" t="n">
-        <v>955.7067844524004</v>
+        <v>1218.076748025826</v>
       </c>
     </row>
     <row r="8">
@@ -4786,13 +4786,13 @@
         <v>1319.190625897137</v>
       </c>
       <c r="D8" t="n">
-        <v>895.898005082137</v>
+        <v>895.8980050821372</v>
       </c>
       <c r="E8" t="n">
-        <v>469.9210652299946</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F8" t="n">
-        <v>44.79688341939484</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G8" t="n">
         <v>44.49822504924753</v>
@@ -4807,49 +4807,49 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
+        <v>44.49822504924753</v>
+      </c>
+      <c r="L8" t="n">
+        <v>44.49822504924753</v>
+      </c>
+      <c r="M8" t="n">
         <v>595.1637600336857</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
+        <v>595.1637600336857</v>
+      </c>
+      <c r="O8" t="n">
         <v>1145.829295018124</v>
       </c>
-      <c r="M8" t="n">
-        <v>1674.245717477938</v>
-      </c>
-      <c r="N8" t="n">
-        <v>2224.911252462377</v>
-      </c>
-      <c r="O8" t="n">
-        <v>2224.911252462377</v>
-      </c>
       <c r="P8" t="n">
-        <v>2224.911252462377</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2174.916180971921</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462377</v>
+        <v>2174.916180971921</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.911252462377</v>
+        <v>2174.916180971921</v>
       </c>
       <c r="V8" t="n">
-        <v>2224.911252462377</v>
+        <v>2174.916180971921</v>
       </c>
       <c r="W8" t="n">
-        <v>2224.911252462377</v>
+        <v>2174.916180971921</v>
       </c>
       <c r="X8" t="n">
-        <v>2217.231657670528</v>
+        <v>2167.236586180072</v>
       </c>
       <c r="Y8" t="n">
-        <v>2165.939720175366</v>
+        <v>2165.939720175367</v>
       </c>
     </row>
     <row r="9">
@@ -4886,25 +4886,25 @@
         <v>51.94486801115937</v>
       </c>
       <c r="K9" t="n">
-        <v>51.94486801115937</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="L9" t="n">
-        <v>201.1892506764427</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="M9" t="n">
-        <v>751.8547856608809</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="N9" t="n">
-        <v>1302.520320645319</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="O9" t="n">
-        <v>1853.185855629757</v>
+        <v>1153.275937980036</v>
       </c>
       <c r="P9" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>458.7432593109769</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="C10" t="n">
-        <v>458.7432593109769</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="D10" t="n">
-        <v>458.7432593109769</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="E10" t="n">
-        <v>458.7432593109769</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
         <v>454.3200315065851</v>
@@ -5007,7 +5007,7 @@
         <v>685.0860276212348</v>
       </c>
       <c r="Y10" t="n">
-        <v>458.7432593109769</v>
+        <v>685.0860276212348</v>
       </c>
     </row>
     <row r="11">
@@ -5023,25 +5023,25 @@
         <v>2113.800768076615</v>
       </c>
       <c r="D11" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261615</v>
       </c>
       <c r="E11" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F11" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988729</v>
       </c>
       <c r="G11" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883215</v>
       </c>
       <c r="H11" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623564</v>
       </c>
       <c r="I11" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K11" t="n">
         <v>1180.414480198223</v>
@@ -5056,37 +5056,37 @@
         <v>4090.576687723259</v>
       </c>
       <c r="O11" t="n">
-        <v>4935.721337874071</v>
+        <v>4541.49385590534</v>
       </c>
       <c r="P11" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.49385590534</v>
       </c>
       <c r="Q11" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R11" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S11" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T11" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U11" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V11" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X11" t="n">
         <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354845</v>
       </c>
     </row>
     <row r="12">
@@ -5111,7 +5111,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H12" t="n">
         <v>102.3027134058285</v>
@@ -5126,16 +5126,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L12" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M12" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N12" t="n">
-        <v>1194.79262694784</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O12" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P12" t="n">
         <v>1910.990343986338</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>373.4203922683193</v>
+        <v>681.1568861517114</v>
       </c>
       <c r="C13" t="n">
-        <v>201.4478291472353</v>
+        <v>509.1843230306274</v>
       </c>
       <c r="D13" t="n">
-        <v>201.4478291472353</v>
+        <v>345.8675501573981</v>
       </c>
       <c r="E13" t="n">
-        <v>201.4478291472353</v>
+        <v>345.8675501573981</v>
       </c>
       <c r="F13" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573981</v>
       </c>
       <c r="G13" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573981</v>
       </c>
       <c r="H13" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655525</v>
       </c>
       <c r="I13" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K13" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L13" t="n">
         <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100492</v>
       </c>
       <c r="N13" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976528</v>
       </c>
       <c r="O13" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656291</v>
       </c>
       <c r="P13" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578192</v>
       </c>
       <c r="Q13" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818954</v>
       </c>
       <c r="R13" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.677127506127</v>
       </c>
       <c r="S13" t="n">
-        <v>2112.580693338092</v>
+        <v>2235.677127506127</v>
       </c>
       <c r="T13" t="n">
-        <v>1869.241345563992</v>
+        <v>1992.337779732027</v>
       </c>
       <c r="U13" t="n">
-        <v>1589.056897064296</v>
+        <v>1712.153331232331</v>
       </c>
       <c r="V13" t="n">
-        <v>1307.345429672325</v>
+        <v>1430.44186384036</v>
       </c>
       <c r="W13" t="n">
-        <v>1032.493025844838</v>
+        <v>1155.589460012873</v>
       </c>
       <c r="X13" t="n">
-        <v>789.9291292906429</v>
+        <v>1097.665623174035</v>
       </c>
       <c r="Y13" t="n">
-        <v>563.5863609803849</v>
+        <v>871.3228548637771</v>
       </c>
     </row>
     <row r="14">
@@ -5278,7 +5278,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K14" t="n">
         <v>1180.414480198223</v>
@@ -5290,34 +5290,34 @@
         <v>3114.325629236558</v>
       </c>
       <c r="N14" t="n">
-        <v>4090.576687723259</v>
+        <v>3696.349205754528</v>
       </c>
       <c r="O14" t="n">
-        <v>4935.721337874071</v>
+        <v>4541.49385590534</v>
       </c>
       <c r="P14" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.49385590534</v>
       </c>
       <c r="Q14" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R14" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S14" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T14" t="n">
         <v>4789.842805209199</v>
       </c>
       <c r="U14" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V14" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X14" t="n">
         <v>3365.887132399955</v>
@@ -5348,7 +5348,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H15" t="n">
         <v>102.3027134058285</v>
@@ -5366,19 +5366,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M15" t="n">
-        <v>939.4897558901635</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N15" t="n">
-        <v>939.4897558901635</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O15" t="n">
-        <v>1828.971033901635</v>
+        <v>991.7839914173002</v>
       </c>
       <c r="P15" t="n">
-        <v>1828.971033901635</v>
+        <v>1707.981708455798</v>
       </c>
       <c r="Q15" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
         <v>1910.990343986338</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>769.9464360574118</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C16" t="n">
-        <v>769.9464360574118</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D16" t="n">
-        <v>606.6296631841825</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E16" t="n">
-        <v>440.421457337036</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F16" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G16" t="n">
         <v>102.3027134058285</v>
@@ -5436,10 +5436,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K16" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L16" t="n">
         <v>741.0109641302445</v>
@@ -5466,22 +5466,22 @@
         <v>2112.580693338092</v>
       </c>
       <c r="T16" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U16" t="n">
-        <v>1869.241345563992</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V16" t="n">
-        <v>1703.871473461417</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W16" t="n">
-        <v>1429.01906963393</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X16" t="n">
-        <v>1186.455173079735</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y16" t="n">
-        <v>960.1124047694775</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
         <v>1690.508147261616</v>
@@ -5503,55 +5503,55 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2751.722170419663</v>
+        <v>2720.098147267827</v>
       </c>
       <c r="N17" t="n">
-        <v>3727.973228906364</v>
+        <v>3696.349205754528</v>
       </c>
       <c r="O17" t="n">
-        <v>4573.117879057176</v>
+        <v>4541.49385590534</v>
       </c>
       <c r="P17" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.49385590534</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W17" t="n">
         <v>3777.607131232208</v>
@@ -5585,7 +5585,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H18" t="n">
         <v>102.3027134058285</v>
@@ -5606,10 +5606,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="N18" t="n">
-        <v>1191.617659878699</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O18" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
         <v>1910.990343986338</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>446.1370507523521</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C19" t="n">
-        <v>274.1644876312681</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D19" t="n">
-        <v>274.1644876312681</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E19" t="n">
-        <v>274.1644876312681</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="F19" t="n">
-        <v>102.3027134058285</v>
+        <v>199.7211024026608</v>
       </c>
       <c r="G19" t="n">
         <v>102.3027134058285</v>
@@ -5673,10 +5673,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2185.297351822124</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T19" t="n">
-        <v>1941.958004048024</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U19" t="n">
-        <v>1661.773555548329</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V19" t="n">
-        <v>1380.062088156358</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W19" t="n">
-        <v>1105.20968432887</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X19" t="n">
-        <v>862.6457877746757</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y19" t="n">
-        <v>636.3030194644177</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="20">
@@ -5740,43 +5740,43 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K20" t="n">
-        <v>651.5495334576516</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1581.174581076928</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2585.460682495986</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="N20" t="n">
-        <v>3561.711740982687</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O20" t="n">
-        <v>4406.8563911335</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P20" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S20" t="n">
         <v>5010.768376164567</v>
@@ -5831,25 +5831,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K21" t="n">
-        <v>692.7876399741681</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L21" t="n">
-        <v>730.647150085061</v>
+        <v>1801.283937336665</v>
       </c>
       <c r="M21" t="n">
-        <v>730.647150085061</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N21" t="n">
-        <v>730.647150085061</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O21" t="n">
-        <v>730.647150085061</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P21" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q21" t="n">
         <v>1910.990343986338</v>
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>712.1625887178441</v>
+        <v>612.3940204581199</v>
       </c>
       <c r="C22" t="n">
-        <v>540.1900255967601</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="D22" t="n">
-        <v>540.1900255967601</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="E22" t="n">
-        <v>540.1900255967601</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="F22" t="n">
-        <v>368.3282513713204</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5940,22 +5940,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="T22" t="n">
-        <v>2207.983542013516</v>
+        <v>2108.214973753792</v>
       </c>
       <c r="U22" t="n">
-        <v>1927.799093513821</v>
+        <v>1828.030525254097</v>
       </c>
       <c r="V22" t="n">
-        <v>1646.08762612185</v>
+        <v>1546.319057862125</v>
       </c>
       <c r="W22" t="n">
-        <v>1371.235222294363</v>
+        <v>1271.466654034638</v>
       </c>
       <c r="X22" t="n">
-        <v>1128.671325740168</v>
+        <v>1028.902757480444</v>
       </c>
       <c r="Y22" t="n">
-        <v>902.3285574299098</v>
+        <v>802.5599891701856</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6077,10 +6077,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O24" t="n">
         <v>1910.990343986338</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>712.1625887178441</v>
+        <v>747.5965237391339</v>
       </c>
       <c r="C25" t="n">
-        <v>540.1900255967601</v>
+        <v>575.6239606180499</v>
       </c>
       <c r="D25" t="n">
-        <v>540.1900255967601</v>
+        <v>412.3071877448206</v>
       </c>
       <c r="E25" t="n">
-        <v>540.1900255967601</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="F25" t="n">
-        <v>368.3282513713204</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G25" t="n">
-        <v>202.0712816655526</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6174,25 +6174,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>2207.983542013516</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U25" t="n">
-        <v>1927.799093513821</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V25" t="n">
-        <v>1646.08762612185</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W25" t="n">
-        <v>1371.235222294363</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="X25" t="n">
-        <v>1128.671325740168</v>
+        <v>1164.105260761457</v>
       </c>
       <c r="Y25" t="n">
-        <v>902.3285574299098</v>
+        <v>937.7624924511995</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6314,16 +6314,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3774.338928650966</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>3602.366365529882</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>3439.049592656653</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>3272.841386809506</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>3100.979612584067</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>5115.135670291427</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>5115.135670291427</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>4834.951221791732</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>4553.23975439976</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>4278.387350572273</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>4035.823454018078</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>3964.504897363031</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6466,25 +6466,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>651.5495334576516</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L29" t="n">
-        <v>1581.174581076928</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M29" t="n">
-        <v>2585.460682495986</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N29" t="n">
-        <v>3561.711740982687</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>4406.8563911335</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6551,16 +6551,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>991.7839914173002</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q30" t="n">
         <v>1910.990343986338</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>850.1944999357522</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>1092.758396489947</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>850.1944999357522</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>850.1944999357522</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6700,22 +6700,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P32" t="n">
         <v>5115.135670291427</v>
@@ -6785,16 +6785,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N33" t="n">
-        <v>939.1015214887346</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O33" t="n">
-        <v>1828.582799500206</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P33" t="n">
         <v>1910.990343986338</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3278.556980224822</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>3106.584417103738</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>3106.584417103738</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>3106.584417103738</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>5017.717281294595</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>4774.377933520494</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>4494.193485020799</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>4212.482017628828</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>3937.629613801341</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>3695.065717247146</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>3468.722948936888</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6925,64 +6925,64 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.407025598874</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883227</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I35" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058286</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K35" t="n">
-        <v>102.3027134058286</v>
+        <v>786.1869982294919</v>
       </c>
       <c r="L35" t="n">
-        <v>1031.927761025105</v>
+        <v>1715.812045848769</v>
       </c>
       <c r="M35" t="n">
-        <v>2036.213862444163</v>
+        <v>2720.098147267827</v>
       </c>
       <c r="N35" t="n">
-        <v>3012.464920930865</v>
+        <v>3696.349205754528</v>
       </c>
       <c r="O35" t="n">
-        <v>3857.609571081677</v>
+        <v>4541.49385590534</v>
       </c>
       <c r="P35" t="n">
-        <v>4565.888850239604</v>
+        <v>4541.49385590534</v>
       </c>
       <c r="Q35" t="n">
-        <v>5021.974329743787</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291428</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164569</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209201</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
-        <v>4531.487895805613</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931863</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.60713123221</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399957</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="36">
@@ -7004,40 +7004,40 @@
         <v>343.3784087430108</v>
       </c>
       <c r="F36" t="n">
-        <v>249.732578425915</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G36" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H36" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058286</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058286</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058286</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058286</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>446.1370507523521</v>
+        <v>608.0932463474637</v>
       </c>
       <c r="C37" t="n">
-        <v>274.1644876312681</v>
+        <v>608.0932463474637</v>
       </c>
       <c r="D37" t="n">
-        <v>274.1644876312681</v>
+        <v>444.7764734742344</v>
       </c>
       <c r="E37" t="n">
-        <v>274.1644876312681</v>
+        <v>444.7764734742344</v>
       </c>
       <c r="F37" t="n">
-        <v>102.3027134058286</v>
+        <v>444.7764734742344</v>
       </c>
       <c r="G37" t="n">
-        <v>102.3027134058286</v>
+        <v>278.5195037684666</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3027134058286</v>
+        <v>134.723235276621</v>
       </c>
       <c r="I37" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
-        <v>741.0109641302446</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M37" t="n">
         <v>1132.196759100495</v>
       </c>
       <c r="N37" t="n">
-        <v>1509.68826997653</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O37" t="n">
-        <v>1865.116398656293</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P37" t="n">
-        <v>2155.715610578194</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q37" t="n">
-        <v>2282.715740818956</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818956</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>2185.297351822124</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>1941.958004048024</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U37" t="n">
-        <v>1661.773555548329</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V37" t="n">
-        <v>1380.062088156358</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="W37" t="n">
-        <v>1105.20968432887</v>
+        <v>1267.165879923982</v>
       </c>
       <c r="X37" t="n">
-        <v>862.6457877746757</v>
+        <v>1024.601983369787</v>
       </c>
       <c r="Y37" t="n">
-        <v>636.3030194644177</v>
+        <v>798.2592150595294</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261615</v>
       </c>
       <c r="E38" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988742</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883227</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I38" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K38" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>2110.0395278175</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M38" t="n">
-        <v>3114.325629236558</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N38" t="n">
-        <v>3950.770911629317</v>
+        <v>2988.0699265966</v>
       </c>
       <c r="O38" t="n">
-        <v>3950.770911629317</v>
+        <v>3833.214576747412</v>
       </c>
       <c r="P38" t="n">
-        <v>4659.050190787245</v>
+        <v>4541.49385590534</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291428</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291428</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164569</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354845</v>
       </c>
     </row>
     <row r="39">
@@ -7241,34 +7241,34 @@
         <v>343.3784087430108</v>
       </c>
       <c r="F39" t="n">
-        <v>249.732578425915</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H39" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058286</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058286</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058286</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058286</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M39" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N39" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O39" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P39" t="n">
         <v>1364.825557038856</v>
@@ -7320,25 +7320,25 @@
         <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L40" t="n">
-        <v>741.0109641302446</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M40" t="n">
         <v>1132.196759100495</v>
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
-        <v>1690.508147261615</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>102.3027134058286</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K41" t="n">
-        <v>817.8110213813277</v>
+        <v>464.906172222724</v>
       </c>
       <c r="L41" t="n">
-        <v>1581.174581076929</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M41" t="n">
-        <v>2585.460682495987</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N41" t="n">
-        <v>3561.711740982688</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O41" t="n">
-        <v>4406.8563911335</v>
+        <v>4220.213029898572</v>
       </c>
       <c r="P41" t="n">
-        <v>5115.135670291428</v>
+        <v>4928.4923090565</v>
       </c>
       <c r="Q41" t="n">
-        <v>5115.135670291428</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291428</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164569</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.842805209201</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U41" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X41" t="n">
         <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
-        <v>2960.549862354845</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7478,37 +7478,37 @@
         <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>249.732578425915</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H42" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K42" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L42" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M42" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N42" t="n">
-        <v>730.647150085061</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O42" t="n">
-        <v>730.647150085061</v>
+        <v>991.7839914173002</v>
       </c>
       <c r="P42" t="n">
-        <v>1446.844867123559</v>
+        <v>1707.981708455798</v>
       </c>
       <c r="Q42" t="n">
         <v>1910.990343986338</v>
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>543.5554397491844</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C43" t="n">
-        <v>440.3726934784146</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D43" t="n">
-        <v>440.3726934784146</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E43" t="n">
         <v>274.1644876312681</v>
       </c>
       <c r="F43" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G43" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H43" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L43" t="n">
-        <v>741.0109641302446</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
         <v>1132.196759100495</v>
@@ -7596,25 +7596,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T43" t="n">
-        <v>2039.376393044857</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U43" t="n">
-        <v>1759.191944545161</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V43" t="n">
-        <v>1477.48047715319</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.628073325703</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X43" t="n">
-        <v>960.064176771508</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y43" t="n">
-        <v>733.72140846125</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D44" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261615</v>
       </c>
       <c r="E44" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F44" t="n">
-        <v>839.407025598874</v>
+        <v>839.4070255988729</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883227</v>
+        <v>435.0679631883215</v>
       </c>
       <c r="H44" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K44" t="n">
         <v>1180.414480198223</v>
@@ -7657,43 +7657,43 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N44" t="n">
-        <v>4090.576687723259</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O44" t="n">
-        <v>4659.050190787245</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P44" t="n">
-        <v>4659.050190787245</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q44" t="n">
-        <v>5115.135670291428</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R44" t="n">
-        <v>5115.135670291428</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S44" t="n">
-        <v>5010.768376164569</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T44" t="n">
-        <v>4789.842805209201</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
-        <v>4531.487895805613</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V44" t="n">
-        <v>4173.998480931863</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X44" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354845</v>
       </c>
     </row>
     <row r="45">
@@ -7715,34 +7715,34 @@
         <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>249.732578425915</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H45" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>374.0002026854197</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K45" t="n">
-        <v>374.0002026854197</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L45" t="n">
-        <v>374.0002026854197</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M45" t="n">
-        <v>1429.986740661465</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N45" t="n">
-        <v>1429.986740661465</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O45" t="n">
-        <v>1429.986740661465</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P45" t="n">
         <v>1446.844867123559</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>446.1370507523521</v>
+        <v>543.5554397491812</v>
       </c>
       <c r="C46" t="n">
-        <v>274.1644876312681</v>
+        <v>371.5828766280972</v>
       </c>
       <c r="D46" t="n">
-        <v>274.1644876312681</v>
+        <v>371.5828766280972</v>
       </c>
       <c r="E46" t="n">
-        <v>274.1644876312681</v>
+        <v>371.5828766280972</v>
       </c>
       <c r="F46" t="n">
-        <v>102.3027134058286</v>
+        <v>371.5828766280972</v>
       </c>
       <c r="G46" t="n">
-        <v>102.3027134058286</v>
+        <v>205.3259069223294</v>
       </c>
       <c r="H46" t="n">
-        <v>102.3027134058286</v>
+        <v>202.0712816655525</v>
       </c>
       <c r="I46" t="n">
-        <v>102.3027134058286</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K46" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L46" t="n">
-        <v>741.0109641302446</v>
+        <v>741.0109641302413</v>
       </c>
       <c r="M46" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100492</v>
       </c>
       <c r="N46" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976528</v>
       </c>
       <c r="O46" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656291</v>
       </c>
       <c r="P46" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578192</v>
       </c>
       <c r="Q46" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818954</v>
       </c>
       <c r="R46" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818954</v>
       </c>
       <c r="S46" t="n">
-        <v>2185.297351822124</v>
+        <v>2282.715740818954</v>
       </c>
       <c r="T46" t="n">
-        <v>1941.958004048024</v>
+        <v>2039.376393044854</v>
       </c>
       <c r="U46" t="n">
-        <v>1661.773555548329</v>
+        <v>1759.191944545158</v>
       </c>
       <c r="V46" t="n">
-        <v>1380.062088156358</v>
+        <v>1477.480477153187</v>
       </c>
       <c r="W46" t="n">
-        <v>1105.20968432887</v>
+        <v>1202.6280733257</v>
       </c>
       <c r="X46" t="n">
-        <v>862.6457877746757</v>
+        <v>960.0641767715048</v>
       </c>
       <c r="Y46" t="n">
-        <v>636.3030194644177</v>
+        <v>733.7214084612468</v>
       </c>
     </row>
   </sheetData>
@@ -7981,25 +7981,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>519.5412919487801</v>
       </c>
       <c r="L2" t="n">
-        <v>41.84979707109345</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>521.0563139884132</v>
+        <v>521.0563139884167</v>
       </c>
       <c r="O2" t="n">
-        <v>521.1676505099913</v>
+        <v>521.1676505099948</v>
       </c>
       <c r="P2" t="n">
-        <v>521.3520529641985</v>
+        <v>501.8055199882839</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
         <v>35.03264989479647</v>
@@ -8063,22 +8063,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>506.2917778682003</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>506.8734716662987</v>
       </c>
       <c r="N3" t="n">
-        <v>411.9130334992747</v>
+        <v>505.1197193675124</v>
       </c>
       <c r="O3" t="n">
-        <v>506.9485808761893</v>
+        <v>398.7990188668855</v>
       </c>
       <c r="P3" t="n">
-        <v>505.5475323587958</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
         <v>23.67291939414415</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.64739370149528</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>20.964654452712</v>
+        <v>149.2582520094732</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8157,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>182.5915214642101</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
         <v>593.6590760150259</v>
@@ -8233,13 +8233,13 @@
         <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>571.3293238908518</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,25 +8294,25 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>455.7096961566975</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204228</v>
+        <v>172.5227428869331</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
@@ -8394,7 +8394,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8455,28 +8455,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>571.1852249800523</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>548.1209608588846</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,28 +8534,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>173.266988396334</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
         <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>177.0689530252722</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8704,13 +8704,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>891.0724241548241</v>
+        <v>492.8628464086314</v>
       </c>
       <c r="P11" t="n">
-        <v>100.0581876036193</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8774,19 +8774,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>279.6168721116282</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
@@ -8938,19 +8938,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>625.1822253778502</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>218.8019602116015</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9014,7 +9014,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>868.740257769232</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
@@ -9023,13 +9023,13 @@
         <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>227.806266097605</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9172,7 +9172,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>653.6520906270349</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9181,13 +9181,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>585.0680802286672</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9254,13 +9254,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>1121.661155963915</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O18" t="n">
-        <v>26.37892716579976</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P18" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
@@ -9400,19 +9400,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055946</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9421,10 +9421,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,16 +9479,16 @@
         <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
-        <v>60.75701611917185</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>133.9113326837148</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
@@ -9497,10 +9497,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,22 +9646,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9725,13 +9725,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>781.6471621574452</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9892,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>466.324307620685</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9962,19 +9962,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10114,13 +10114,13 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>304.4845953330648</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10132,10 +10132,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10199,19 +10199,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>481.4282914131709</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10363,10 +10363,10 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>891.0724241548241</v>
+        <v>356.8654072451563</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
@@ -10433,19 +10433,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>226.402256022168</v>
       </c>
       <c r="O33" t="n">
         <v>921.6378271075471</v>
       </c>
       <c r="P33" t="n">
-        <v>105.0107851302144</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
@@ -10585,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>35.76460079480934</v>
+        <v>360.2906876703324</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
@@ -10603,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>129.1350140843328</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10828,16 +10828,16 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>882.1738474735971</v>
+        <v>848.7638096822426</v>
       </c>
       <c r="O38" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
         <v>753.0089771212694</v>
@@ -10846,7 +10846,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,19 +10898,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>574.9403427290241</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
         <v>21.34302821354166</v>
@@ -10919,7 +10919,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q39" t="n">
         <v>491.5808533018869</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L41" t="n">
-        <v>809.3863451554527</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
         <v>1051.861668373228</v>
@@ -11080,10 +11080,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>105.9095497086619</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11150,16 +11150,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>656.0343783945843</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P42" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>227.806266097605</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11305,22 +11305,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>611.6066190166164</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>54.56363491934414</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
         <v>22.39923383333334</v>
@@ -11384,16 +11384,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P45" t="n">
-        <v>38.79925177260048</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
         <v>491.5808533018869</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>71.9894918991925</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>182.7936591182035</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,19 +23655,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
@@ -23706,13 +23706,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>71.98949189919222</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>115.1781793365028</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>68.15019490184621</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>118.5577190788907</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>166.9210774789729</v>
+        <v>68.15019490184628</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>166.9210774789729</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>98.3304903668942</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,16 +24606,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
@@ -24651,10 +24651,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.4739695386589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>106.2309441183566</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>8.668621376273222e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>66.67456592504226</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>71.98949189919311</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>68.10191868181103</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>71.9894918991923</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>139.1362268027181</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>71.9894918991922</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>444711.652375344</v>
+        <v>444711.6523753441</v>
       </c>
     </row>
     <row r="3">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>435838.9157510696</v>
+        <v>435838.9157510694</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>435838.9157510694</v>
+        <v>435838.9157510696</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>435838.9157510696</v>
+        <v>435838.9157510694</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>435838.9157510694</v>
+        <v>435838.9157510696</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>582442.6680111631</v>
+        <v>582442.6680111632</v>
       </c>
       <c r="C2" t="n">
         <v>582442.668011163</v>
       </c>
       <c r="D2" t="n">
-        <v>582442.6680111631</v>
+        <v>582442.668011163</v>
       </c>
       <c r="E2" t="n">
-        <v>562030.4031374471</v>
+        <v>562030.4031374473</v>
       </c>
       <c r="F2" t="n">
-        <v>562030.403137447</v>
+        <v>562030.4031374473</v>
       </c>
       <c r="G2" t="n">
-        <v>562030.4031374468</v>
+        <v>562030.4031374474</v>
       </c>
       <c r="H2" t="n">
-        <v>562030.403137447</v>
+        <v>562030.4031374472</v>
       </c>
       <c r="I2" t="n">
         <v>562030.4031374474</v>
       </c>
       <c r="J2" t="n">
-        <v>562030.4031374474</v>
+        <v>562030.4031374472</v>
       </c>
       <c r="K2" t="n">
+        <v>562030.4031374472</v>
+      </c>
+      <c r="L2" t="n">
+        <v>562030.4031374472</v>
+      </c>
+      <c r="M2" t="n">
         <v>562030.4031374475</v>
-      </c>
-      <c r="L2" t="n">
-        <v>562030.4031374474</v>
-      </c>
-      <c r="M2" t="n">
-        <v>562030.4031374472</v>
       </c>
       <c r="N2" t="n">
         <v>562030.4031374472</v>
       </c>
       <c r="O2" t="n">
-        <v>562030.4031374472</v>
+        <v>562030.4031374475</v>
       </c>
       <c r="P2" t="n">
-        <v>562030.4031374474</v>
+        <v>562030.4031374471</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162124.6960695909</v>
+        <v>162124.6960695921</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.8336736125</v>
+        <v>23406.83367361135</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215739.3565566406</v>
+        <v>215739.3565566405</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>126577.2685802886</v>
+        <v>126577.2685802895</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035702002</v>
+        <v>18646.6003570191</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>180063.8714551677</v>
+        <v>180063.8714551675</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>163968.715444695</v>
+        <v>163968.7154446942</v>
       </c>
       <c r="C4" t="n">
-        <v>148130.4125690141</v>
+        <v>148130.4125690142</v>
       </c>
       <c r="D4" t="n">
         <v>148130.4125690141</v>
@@ -26429,37 +26429,37 @@
         <v>15116.17365792743</v>
       </c>
       <c r="F4" t="n">
+        <v>15116.17365792743</v>
+      </c>
+      <c r="G4" t="n">
+        <v>15116.17365792743</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15116.17365792743</v>
+      </c>
+      <c r="I4" t="n">
         <v>15116.17365792744</v>
       </c>
-      <c r="G4" t="n">
+      <c r="J4" t="n">
         <v>15116.17365792744</v>
-      </c>
-      <c r="H4" t="n">
-        <v>15116.17365792739</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15116.17365792743</v>
-      </c>
-      <c r="J4" t="n">
-        <v>15116.17365792743</v>
       </c>
       <c r="K4" t="n">
         <v>15116.17365792744</v>
       </c>
       <c r="L4" t="n">
+        <v>15116.17365792744</v>
+      </c>
+      <c r="M4" t="n">
         <v>15116.17365792743</v>
       </c>
-      <c r="M4" t="n">
-        <v>15116.17365792733</v>
-      </c>
       <c r="N4" t="n">
-        <v>15116.17365792735</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="O4" t="n">
-        <v>15116.17365792739</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="P4" t="n">
-        <v>15116.17365792735</v>
+        <v>15116.17365792743</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63041.2228221612</v>
+        <v>63041.22282216142</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26478,16 +26478,16 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="F5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="I5" t="n">
         <v>77750.06218842969</v>
@@ -26502,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.0621884297</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.0621884297</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.0621884297</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="P5" t="n">
-        <v>77750.0621884297</v>
+        <v>77750.06218842966</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>193308.033674716</v>
+        <v>193308.0336747154</v>
       </c>
       <c r="C6" t="n">
-        <v>343459.1707311083</v>
+        <v>343459.1707311093</v>
       </c>
       <c r="D6" t="n">
-        <v>366866.0044047209</v>
+        <v>366866.0044047207</v>
       </c>
       <c r="E6" t="n">
-        <v>253424.8107344494</v>
+        <v>253373.7800722655</v>
       </c>
       <c r="F6" t="n">
-        <v>469164.1672910898</v>
+        <v>469113.136628906</v>
       </c>
       <c r="G6" t="n">
-        <v>469164.1672910897</v>
+        <v>469113.1366289061</v>
       </c>
       <c r="H6" t="n">
-        <v>469164.1672910899</v>
+        <v>469113.1366289058</v>
       </c>
       <c r="I6" t="n">
-        <v>469164.1672910903</v>
+        <v>469113.136628906</v>
       </c>
       <c r="J6" t="n">
-        <v>342586.8987108017</v>
+        <v>342535.8680486163</v>
       </c>
       <c r="K6" t="n">
-        <v>450517.5669340704</v>
+        <v>450466.5362718867</v>
       </c>
       <c r="L6" t="n">
-        <v>469164.1672910903</v>
+        <v>469113.1366289058</v>
       </c>
       <c r="M6" t="n">
-        <v>289100.2958359225</v>
+        <v>289049.2651737387</v>
       </c>
       <c r="N6" t="n">
-        <v>469164.1672910902</v>
+        <v>469113.1366289058</v>
       </c>
       <c r="O6" t="n">
-        <v>469164.1672910901</v>
+        <v>469113.1366289062</v>
       </c>
       <c r="P6" t="n">
-        <v>469164.1672910904</v>
+        <v>469113.1366289057</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539671</v>
+        <v>483.7766911539707</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26798,13 +26798,13 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="F4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="G4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="H4" t="n">
         <v>1278.783917572857</v>
@@ -26822,16 +26822,16 @@
         <v>1278.783917572857</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="O4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="P4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
     </row>
   </sheetData>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539671</v>
+        <v>483.7766911539707</v>
       </c>
       <c r="C4" t="n">
-        <v>72.451121961627</v>
+        <v>72.45112196162341</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572622</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539671</v>
+        <v>483.7766911539707</v>
       </c>
       <c r="K4" t="n">
-        <v>72.451121961627</v>
+        <v>72.45112196162341</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572629</v>
+        <v>722.5561044572618</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539671</v>
+        <v>483.7766911539707</v>
       </c>
       <c r="K4" t="n">
-        <v>72.451121961627</v>
+        <v>72.45112196162341</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572622</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,16 +27384,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>334.9968145187222</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
@@ -27438,13 +27438,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>281.3387714463778</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27539,22 +27539,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>113.3518350957449</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27599,13 +27599,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>258.1221009952845</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>385.0527817684122</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>378.9070755048269</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,25 +27824,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>65.01789851058612</v>
       </c>
       <c r="W7" t="n">
-        <v>27.77629167419997</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27861,13 +27861,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>53.8285004100398</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
@@ -27921,7 +27921,7 @@
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>350.5048792244486</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28019,10 +28019,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>106.2309441183568</v>
       </c>
       <c r="F10" t="n">
-        <v>165.7641609568373</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -28110,7 +28110,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>9.379164112033322e-13</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28280,7 +28280,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>-3.110756097157719e-12</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -30714,7 +30714,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30884,7 +30884,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>-3.205021433435225e-12</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -34701,25 +34701,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>483.7766911539707</v>
       </c>
       <c r="L2" t="n">
-        <v>3.537754638470521</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>483.7766911539671</v>
+        <v>483.7766911539707</v>
       </c>
       <c r="O2" t="n">
-        <v>483.7766911539671</v>
+        <v>483.7766911539707</v>
       </c>
       <c r="P2" t="n">
-        <v>483.7766911539671</v>
+        <v>464.2301581780526</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34783,22 +34783,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>483.7766911539707</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>483.7766911539707</v>
       </c>
       <c r="N3" t="n">
-        <v>390.570005285733</v>
+        <v>483.7766911539707</v>
       </c>
       <c r="O3" t="n">
-        <v>483.7766911539671</v>
+        <v>375.6271291446633</v>
       </c>
       <c r="P3" t="n">
-        <v>483.7766911539671</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01063771759341352</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>128.2935975567612</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34877,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>144.2794790315872</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>556.2278131155941</v>
@@ -34953,13 +34953,13 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>533.7539620806206</v>
       </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>432.5378064344753</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>556.2278131155941</v>
+        <v>150.7519016821045</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M8" t="n">
-        <v>533.7539620806206</v>
-      </c>
-      <c r="N8" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,28 +35254,28 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
-        <v>150.7519016821044</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>155.2981118204435</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35424,13 +35424,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>853.6814647988001</v>
+        <v>455.4718870526073</v>
       </c>
       <c r="P11" t="n">
-        <v>62.48282579338804</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35494,19 +35494,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>258.2738438980865</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35576,7 +35576,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M13" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366139</v>
       </c>
       <c r="N13" t="n">
         <v>381.3045564404402</v>
@@ -35658,19 +35658,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1121802895968</v>
+        <v>587.9026025434041</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>181.2265984013702</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35734,7 +35734,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>845.643477256904</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35743,13 +35743,13 @@
         <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>205.0592278086265</v>
       </c>
       <c r="R15" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35892,7 +35892,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>616.2208277276031</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35901,13 +35901,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>547.4927184184359</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35974,13 +35974,13 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1100.318127750374</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O18" t="n">
-        <v>3.207037443577533</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P18" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36141,10 +36141,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
-        <v>38.24192940494229</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>110.8145521713869</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36217,10 +36217,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,22 +36366,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,13 +36445,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>760.3041339439036</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36612,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>428.7489458104537</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,19 +36682,19 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>267.053332433633</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36852,10 +36852,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,19 +36919,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>459.6574502083422</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37083,10 +37083,10 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>853.6814647988001</v>
+        <v>319.4744478891323</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37153,19 +37153,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="O33" t="n">
         <v>898.4659373853249</v>
       </c>
       <c r="P33" t="n">
-        <v>83.23994392538575</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37305,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.5260868755231</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
@@ -37323,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>94.10236418953635</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37475,7 +37475,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N37" t="n">
-        <v>381.3045564404391</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O37" t="n">
         <v>359.0183117977405</v>
@@ -37548,16 +37548,16 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>844.894224639151</v>
+        <v>811.4841868477965</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
         <v>715.433615311038</v>
@@ -37566,7 +37566,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,19 +37618,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>551.8435622166961</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37639,7 +37639,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q39" t="n">
         <v>468.8338150129084</v>
@@ -37779,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>771.0743027228298</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
         <v>1014.430405473796</v>
@@ -37800,10 +37800,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>69.78487510406389</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37870,16 +37870,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>634.6913501810427</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P42" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>205.0592278086265</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38025,22 +38025,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>574.2156596605922</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>19.53098502454767</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P45" t="n">
-        <v>17.02841056777183</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
         <v>468.8338150129084</v>
@@ -38180,7 +38180,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L46" t="n">
-        <v>358.2720417115361</v>
+        <v>358.2720417115329</v>
       </c>
       <c r="M46" t="n">
         <v>395.137166636617</v>
